--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>PartName</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Walther_MRS_reflex_sight</t>
   </si>
   <si>
-    <t>MainItemName</t>
-  </si>
-  <si>
-    <t>NecessaryItemNames</t>
-  </si>
-  <si>
     <t>Textures/ItemTextures/TEST/TestBack</t>
   </si>
   <si>
@@ -212,6 +206,30 @@
   </si>
   <si>
     <t>AKS-74U_Zenit_B-11_handguard;AKS-74U_Wooden_handguard</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SystemName</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>WeaponMain</t>
+  </si>
+  <si>
+    <t>NecessaryTypes</t>
+  </si>
+  <si>
+    <t>Grip;Handguard;WeaponBody</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This is a sovjet AKS-74U carabine</t>
   </si>
 </sst>
 </file>
@@ -475,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -523,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -552,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -677,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -730,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -759,7 +777,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -788,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -817,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -846,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -898,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -907,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1">
         <v>205</v>
@@ -930,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1">
         <v>535</v>
@@ -1042,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1074,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1">
         <v>62</v>
@@ -1091,10 +1109,10 @@
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -1120,10 +1138,10 @@
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1152,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -1181,7 +1199,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1210,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
@@ -1239,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -1265,10 +1283,10 @@
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -1297,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -1326,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
@@ -1355,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
@@ -1407,7 +1425,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2403,49 +2421,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>PartName</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>This is a sovjet AKS-74U carabine</t>
+  </si>
+  <si>
+    <t>ConnectedItem</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2421,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2437,7 @@
     <col min="6" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
@@ -2450,8 +2453,11 @@
       <c r="E1" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -2467,21 +2473,24 @@
       <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
+    <sheet name="AdvancedItems" sheetId="1" r:id="rId1"/>
+    <sheet name="MainItems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>PartName</t>
   </si>
@@ -49,45 +49,21 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>TestBack</t>
-  </si>
-  <si>
     <t>CP0</t>
   </si>
   <si>
-    <t>TestBox</t>
-  </si>
-  <si>
-    <t>TestCenter</t>
-  </si>
-  <si>
     <t>CP1</t>
   </si>
   <si>
-    <t>TestUpper</t>
-  </si>
-  <si>
     <t>CP2</t>
   </si>
   <si>
-    <t>TestButtom</t>
-  </si>
-  <si>
     <t>CP3</t>
   </si>
   <si>
-    <t>TestFront</t>
-  </si>
-  <si>
     <t>CP4</t>
   </si>
   <si>
-    <t>TestFoot</t>
-  </si>
-  <si>
-    <t>TestHead</t>
-  </si>
-  <si>
     <t>AK-74_5.45x39_6L20_30-round_magasine</t>
   </si>
   <si>
@@ -130,30 +106,6 @@
     <t>Walther_MRS_reflex_sight</t>
   </si>
   <si>
-    <t>Textures/ItemTextures/TEST/TestBack</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestBox</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestButtom</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestCenter</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestFoot</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestFront</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestHead</t>
-  </si>
-  <si>
-    <t>Textures/ItemTextures/TEST/TestUpper</t>
-  </si>
-  <si>
     <t>Textures/ItemTextures/Weapons/Bodys/AKS-74U_Body</t>
   </si>
   <si>
@@ -233,6 +185,21 @@
   </si>
   <si>
     <t>ConnectedItem</t>
+  </si>
+  <si>
+    <t>PointType</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -273,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -494,977 +460,704 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I999"/>
+  <dimension ref="A1:J985"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1">
+        <v>205</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1">
+        <v>205</v>
+      </c>
+      <c r="J2" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>535</v>
+      </c>
+      <c r="H3" s="1">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1">
+        <v>533</v>
+      </c>
+      <c r="J3" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>285</v>
+      </c>
+      <c r="H4" s="1">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1">
+        <v>371</v>
+      </c>
+      <c r="J4" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>453</v>
+      </c>
+      <c r="H5" s="1">
+        <v>137</v>
+      </c>
+      <c r="I5" s="1">
+        <v>516</v>
+      </c>
+      <c r="J5" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2">
+        <v>312</v>
+      </c>
+      <c r="H7" s="2">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2">
+        <v>535</v>
+      </c>
+      <c r="J7" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1">
+        <v>196</v>
+      </c>
+      <c r="H9" s="1">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1">
+        <v>196</v>
+      </c>
+      <c r="J9" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1">
+        <v>132</v>
+      </c>
+      <c r="J10" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>215</v>
+      </c>
+      <c r="H11" s="1">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1">
+        <v>215</v>
+      </c>
+      <c r="J11" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1">
+        <v>87</v>
+      </c>
+      <c r="I12" s="1">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
+        <v>112</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>246</v>
+      </c>
+      <c r="J13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>225</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>112</v>
+      </c>
+      <c r="J15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>116</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1">
+        <v>138</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>138</v>
+      </c>
+      <c r="J18" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="2">
+        <v>102</v>
+      </c>
+      <c r="H19" s="2">
+        <v>97</v>
+      </c>
+      <c r="I19" s="2">
+        <v>436</v>
+      </c>
+      <c r="J19" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2">
+        <v>105</v>
+      </c>
+      <c r="H20" s="2">
+        <v>97</v>
+      </c>
+      <c r="I20" s="2">
+        <v>443</v>
+      </c>
+      <c r="J20" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2">
+        <v>180</v>
+      </c>
+      <c r="H21" s="2">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2">
+        <v>288</v>
+      </c>
+      <c r="J21" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2">
+        <v>115</v>
+      </c>
+      <c r="J22" s="2">
+        <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1552</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1090</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1956</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1524</v>
-      </c>
-      <c r="G10" s="4">
-        <v>424</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2618</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="1">
-        <v>205</v>
-      </c>
-      <c r="G16" s="1">
-        <v>45</v>
-      </c>
-      <c r="H16" s="1">
-        <v>205</v>
-      </c>
-      <c r="I16" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1">
-        <v>535</v>
-      </c>
-      <c r="G17" s="1">
-        <v>99</v>
-      </c>
-      <c r="H17" s="1">
-        <v>533</v>
-      </c>
-      <c r="I17" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="1">
-        <v>285</v>
-      </c>
-      <c r="G18" s="1">
-        <v>128</v>
-      </c>
-      <c r="H18" s="1">
-        <v>371</v>
-      </c>
-      <c r="I18" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1">
-        <v>453</v>
-      </c>
-      <c r="G19" s="1">
-        <v>137</v>
-      </c>
-      <c r="H19" s="1">
-        <v>516</v>
-      </c>
-      <c r="I19" s="1">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1">
-        <v>56</v>
-      </c>
-      <c r="G20" s="1">
-        <v>81</v>
-      </c>
-      <c r="H20" s="1">
-        <v>56</v>
-      </c>
-      <c r="I20" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="2">
-        <v>312</v>
-      </c>
-      <c r="G21" s="2">
-        <v>87</v>
-      </c>
-      <c r="H21" s="2">
-        <v>535</v>
-      </c>
-      <c r="I21" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1">
-        <v>196</v>
-      </c>
-      <c r="G22" s="1">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1">
-        <v>196</v>
-      </c>
-      <c r="I22" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="1">
-        <v>62</v>
-      </c>
-      <c r="G23" s="1">
-        <v>161</v>
-      </c>
-      <c r="H23" s="1">
-        <v>132</v>
-      </c>
-      <c r="I23" s="1">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="1">
-        <v>215</v>
-      </c>
-      <c r="G24" s="1">
-        <v>54</v>
-      </c>
-      <c r="H24" s="1">
-        <v>215</v>
-      </c>
-      <c r="I24" s="1">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="1">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1">
-        <v>87</v>
-      </c>
-      <c r="H25" s="1">
-        <v>60</v>
-      </c>
-      <c r="I25" s="1">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1">
-        <v>112</v>
-      </c>
-      <c r="G26" s="1">
-        <v>12</v>
-      </c>
-      <c r="H26" s="1">
-        <v>246</v>
-      </c>
-      <c r="I26" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="1">
-        <v>103</v>
-      </c>
-      <c r="G27" s="1">
-        <v>9</v>
-      </c>
-      <c r="H27" s="1">
-        <v>225</v>
-      </c>
-      <c r="I27" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1">
-        <v>19</v>
-      </c>
-      <c r="H28" s="1">
-        <v>112</v>
-      </c>
-      <c r="I28" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="1">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1">
-        <v>9</v>
-      </c>
-      <c r="H29" s="1">
-        <v>116</v>
-      </c>
-      <c r="I29" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1">
-        <v>18</v>
-      </c>
-      <c r="G30" s="1">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1">
-        <v>89</v>
-      </c>
-      <c r="I30" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="1">
-        <v>138</v>
-      </c>
-      <c r="G31" s="1">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1">
-        <v>138</v>
-      </c>
-      <c r="I31" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2">
-        <v>102</v>
-      </c>
-      <c r="G32" s="2">
-        <v>97</v>
-      </c>
-      <c r="H32" s="2">
-        <v>436</v>
-      </c>
-      <c r="I32" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2">
-        <v>105</v>
-      </c>
-      <c r="G33" s="2">
-        <v>97</v>
-      </c>
-      <c r="H33" s="2">
-        <v>443</v>
-      </c>
-      <c r="I33" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="2">
-        <v>180</v>
-      </c>
-      <c r="G34" s="2">
-        <v>32</v>
-      </c>
-      <c r="H34" s="2">
-        <v>288</v>
-      </c>
-      <c r="I34" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2">
-        <v>95</v>
-      </c>
-      <c r="H35" s="2">
-        <v>115</v>
-      </c>
-      <c r="I35" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2402,20 +2095,6 @@
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2426,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2439,42 +2118,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="AdvancedItems" sheetId="1" r:id="rId1"/>
+    <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
     <sheet name="MainItems" sheetId="2" r:id="rId2"/>
+    <sheet name="AdvancedItems" sheetId="3" r:id="rId3"/>
+    <sheet name="System" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
   <si>
     <t>PartName</t>
   </si>
@@ -67,21 +69,12 @@
     <t>AK-74_5.45x39_6L20_30-round_magasine</t>
   </si>
   <si>
-    <t>AK-74_5.45x39_6L20_30-round_magasine;AK-74_5.45x39_6L31_60-round_magasine</t>
-  </si>
-  <si>
-    <t>AK_Zenit_RK-3_pistol_grip;AKS-74U_bakelite_pistol_grip</t>
-  </si>
-  <si>
     <t>CP5</t>
   </si>
   <si>
     <t>AK-105_5.45x39_muzzle_brake-compensator</t>
   </si>
   <si>
-    <t>AKS-74U_dust_cover;AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</t>
-  </si>
-  <si>
     <t>AKS-74U_Zenit_B-11_handguard</t>
   </si>
   <si>
@@ -157,9 +150,6 @@
     <t>AKS-74U</t>
   </si>
   <si>
-    <t>AKS-74U_Zenit_B-11_handguard;AKS-74U_Wooden_handguard</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -175,9 +165,6 @@
     <t>NecessaryTypes</t>
   </si>
   <si>
-    <t>Grip;Handguard;WeaponBody</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -200,13 +187,247 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Glock_19X_9x19_pistol_body</t>
+  </si>
+  <si>
+    <t>Glock_9x19_19-round_magasine_(Coyote)</t>
+  </si>
+  <si>
+    <t>Glock_19X_9x19_barrel</t>
+  </si>
+  <si>
+    <t>Glock_19X_pistol_slide</t>
+  </si>
+  <si>
+    <t>Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</t>
+  </si>
+  <si>
+    <t>Glock_19X_front_sight</t>
+  </si>
+  <si>
+    <t>Glock_19X_rear_sight</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Sights/Glock_19X_front_sight</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Sights/Glock_19X_rear_sight</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Bodys/Glock_19X_9x19_pistol_body</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Magasines/Glock_9x19_19-round_magasine_(Coyote)</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Lasers/Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Barrels/Glock_19X_9x19_barrel</t>
+  </si>
+  <si>
+    <t>Textures/ItemTextures/Weapons/Slides/Glock_19X_pistol_slide</t>
+  </si>
+  <si>
+    <t>SystemNames</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>SizeX</t>
+  </si>
+  <si>
+    <t>SizeY</t>
+  </si>
+  <si>
+    <t>IsDropAble</t>
+  </si>
+  <si>
+    <t>IsRemoveAble</t>
+  </si>
+  <si>
+    <t>IsUnloadAble</t>
+  </si>
+  <si>
+    <t>IsModificationAble</t>
+  </si>
+  <si>
+    <t>SizeChanger</t>
+  </si>
+  <si>
+    <t>IsOpenAble</t>
+  </si>
+  <si>
+    <t>ContainerPath</t>
+  </si>
+  <si>
+    <t>MaxStackSize</t>
+  </si>
+  <si>
+    <t>MagasineSize</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Fpm</t>
+  </si>
+  <si>
+    <t>Recoil</t>
+  </si>
+  <si>
+    <t>Accturacy</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Ergonomy</t>
+  </si>
+  <si>
+    <t>Caliber</t>
+  </si>
+  <si>
+    <t>UseLeft</t>
+  </si>
+  <si>
+    <t>AKS-74U DC</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Dustcover</t>
+  </si>
+  <si>
+    <t>Grip</t>
+  </si>
+  <si>
+    <t>Handguard</t>
+  </si>
+  <si>
+    <t>WeaponBody</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>AKS-74U Body</t>
+  </si>
+  <si>
+    <t>Glock 19X Body</t>
+  </si>
+  <si>
+    <t>Zenit B-11</t>
+  </si>
+  <si>
+    <t>AKS-74U Skeleton ST</t>
+  </si>
+  <si>
+    <t>AKS-74U HG</t>
+  </si>
+  <si>
+    <t>AK-74 6L20 M</t>
+  </si>
+  <si>
+    <t>AK-74 6L31 M</t>
+  </si>
+  <si>
+    <t>Walther reflex S</t>
+  </si>
+  <si>
+    <t>Glock 19 19-M</t>
+  </si>
+  <si>
+    <t>Zenit-RK-3</t>
+  </si>
+  <si>
+    <t>AKS-74U Grip</t>
+  </si>
+  <si>
+    <t>KAC VG</t>
+  </si>
+  <si>
+    <t>AK-105 Muzzle B</t>
+  </si>
+  <si>
+    <t>AKS-74U LegalAP DC</t>
+  </si>
+  <si>
+    <t>Glock 19X Barrel</t>
+  </si>
+  <si>
+    <t>Glock 19X rear S</t>
+  </si>
+  <si>
+    <t>Glock 19X front S</t>
+  </si>
+  <si>
+    <t>Glock 19X slide</t>
+  </si>
+  <si>
+    <t>Olight Pro light/laser</t>
+  </si>
+  <si>
+    <t>AKS-74U_Body=AdvancedItems!A2</t>
+  </si>
+  <si>
+    <t>1;2;D</t>
+  </si>
+  <si>
+    <t>VerticalGrip</t>
+  </si>
+  <si>
+    <t>Magasine</t>
+  </si>
+  <si>
+    <t>MuzzleBreak</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>Stok</t>
+  </si>
+  <si>
+    <t>2;4;R</t>
+  </si>
+  <si>
+    <t>Barrel</t>
+  </si>
+  <si>
+    <t>5.45x39</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Laser/Light</t>
+  </si>
+  <si>
+    <t>IsUsAble</t>
+  </si>
+  <si>
+    <t>ReloadAble</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,18 +438,92 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -236,18 +531,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Bevitel" xfId="4" builtinId="20"/>
+    <cellStyle name="Ellenőrzőcella" xfId="5" builtinId="23"/>
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="2" builtinId="27"/>
+    <cellStyle name="Semleges" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,11 +803,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J985"/>
+  <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,14 +818,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -509,14 +850,15 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+      <c r="A2" s="3" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -524,8 +866,9 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
+      <c r="F2" t="str">
+        <f>AdvancedItems!A4 &amp; ";" &amp; AdvancedItems!A5</f>
+        <v>AKS-74U_Zenit_B-11_handguard;AKS-74U_Wooden_handguard</v>
       </c>
       <c r="G2" s="1">
         <v>205</v>
@@ -542,7 +885,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -550,8 +893,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
+      <c r="F3" s="3" t="str">
+        <f>AdvancedItems!A6</f>
+        <v>AKS-74U_Skeletonized_Stock</v>
       </c>
       <c r="G3" s="1">
         <v>535</v>
@@ -568,7 +912,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -576,8 +920,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="F4" s="1" t="str">
+        <f>AdvancedItems!A7 &amp; ";" &amp; AdvancedItems!A8</f>
+        <v>AK-74_5.45x39_6L20_30-round_magasine;AK-74_5.45x39_6L31_60-round_magasine</v>
       </c>
       <c r="G4" s="1">
         <v>285</v>
@@ -594,7 +939,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -602,8 +947,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+      <c r="F5" s="1" t="str">
+        <f>AdvancedItems!A10 &amp; ";" &amp; AdvancedItems!A11</f>
+        <v>AK_Zenit_RK-3_pistol_grip;AKS-74U_bakelite_pistol_grip</v>
       </c>
       <c r="G5" s="1">
         <v>453</v>
@@ -620,7 +966,7 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -628,8 +974,9 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1" t="str">
+        <f>AdvancedItems!A13</f>
+        <v>AK-105_5.45x39_muzzle_brake-compensator</v>
       </c>
       <c r="G6" s="1">
         <v>56</v>
@@ -646,16 +993,17 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
+      <c r="F7" s="2" t="str">
+        <f>AdvancedItems!A14 &amp; ";" &amp; AdvancedItems!A15</f>
+        <v>AKS-74U_dust_cover;AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</v>
       </c>
       <c r="G7" s="2">
         <v>312</v>
@@ -672,16 +1020,16 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -697,14 +1045,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
+      <c r="A9" s="3" t="str">
+        <f>AdvancedItems!A4</f>
+        <v>AKS-74U_Zenit_B-11_handguard</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -712,8 +1061,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
+      <c r="F9" s="3" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G9" s="1">
         <v>196</v>
@@ -730,7 +1080,7 @@
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -738,8 +1088,9 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
+      <c r="F10" s="3" t="str">
+        <f>AdvancedItems!A12</f>
+        <v>KAC_vertical_foregrip</v>
       </c>
       <c r="G10" s="1">
         <v>62</v>
@@ -755,14 +1106,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
+      <c r="A11" s="3" t="str">
+        <f>AdvancedItems!A5</f>
+        <v>AKS-74U_Wooden_handguard</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -770,8 +1122,9 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
+      <c r="F11" s="3" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G11" s="1">
         <v>215</v>
@@ -787,14 +1140,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
+      <c r="A12" s="3" t="str">
+        <f>AdvancedItems!A6</f>
+        <v>AKS-74U_Skeletonized_Stock</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -802,8 +1156,9 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
+      <c r="F12" s="3" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G12" s="1">
         <v>62</v>
@@ -819,14 +1174,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
+      <c r="A13" s="3" t="str">
+        <f>AdvancedItems!A7</f>
+        <v>AK-74_5.45x39_6L20_30-round_magasine</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -834,8 +1190,8 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>21</v>
+      <c r="F13" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G13" s="1">
         <v>112</v>
@@ -851,14 +1207,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
+      <c r="A14" s="3" t="str">
+        <f>AdvancedItems!A8</f>
+        <v>AK-74_5.45x39_6L31_60-round_magasine</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -866,8 +1223,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
+      <c r="F14" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G14" s="1">
         <v>103</v>
@@ -883,14 +1241,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
+      <c r="A15" s="3" t="str">
+        <f>AdvancedItems!A10</f>
+        <v>AK_Zenit_RK-3_pistol_grip</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -898,8 +1257,9 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
+      <c r="F15" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G15" s="1">
         <v>21</v>
@@ -915,14 +1275,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
+      <c r="A16" s="3" t="str">
+        <f>AdvancedItems!A11</f>
+        <v>AKS-74U_bakelite_pistol_grip</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -930,8 +1291,9 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
+      <c r="F16" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G16" s="1">
         <v>14</v>
@@ -947,14 +1309,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>43</v>
+      <c r="A17" s="3" t="str">
+        <f>AdvancedItems!A12</f>
+        <v>KAC_vertical_foregrip</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -962,8 +1325,9 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
+      <c r="F17" s="1" t="str">
+        <f>AdvancedItems!A4</f>
+        <v>AKS-74U_Zenit_B-11_handguard</v>
       </c>
       <c r="G17" s="1">
         <v>18</v>
@@ -979,14 +1343,15 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
+      <c r="A18" s="3" t="str">
+        <f>AdvancedItems!A13</f>
+        <v>AK-105_5.45x39_muzzle_brake-compensator</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -994,8 +1359,9 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
+      <c r="F18" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G18" s="1">
         <v>138</v>
@@ -1011,14 +1377,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19" t="str">
+        <f>AdvancedItems!A14</f>
+        <v>AKS-74U_dust_cover</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1026,8 +1393,9 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
+      <c r="F19" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G19" s="2">
         <v>102</v>
@@ -1043,14 +1411,15 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
+      <c r="A20" t="str">
+        <f>AdvancedItems!A15</f>
+        <v>AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1058,8 +1427,9 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
+      <c r="F20" s="1" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
       <c r="G20" s="2">
         <v>105</v>
@@ -1076,7 +1446,7 @@
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
@@ -1085,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
         <v>180</v>
@@ -1101,14 +1471,15 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
+      <c r="A22" t="str">
+        <f>AdvancedItems!A16</f>
+        <v>Walther_MRS_reflex_sight</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -1116,8 +1487,9 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>26</v>
+      <c r="F22" t="str">
+        <f>AdvancedItems!A16</f>
+        <v>Walther_MRS_reflex_sight</v>
       </c>
       <c r="G22" s="2">
         <v>6</v>
@@ -1132,32 +1504,418 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>AdvancedItems!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f>AdvancedItems!A9</f>
+        <v>Glock_9x19_19-round_magasine_(Coyote)</v>
+      </c>
+      <c r="G23">
+        <v>358</v>
+      </c>
+      <c r="H23">
+        <v>304</v>
+      </c>
+      <c r="I23">
+        <v>460</v>
+      </c>
+      <c r="J23">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f>AdvancedItems!A19</f>
+        <v>Glock_19X_9x19_barrel</v>
+      </c>
+      <c r="G24">
+        <v>200</v>
+      </c>
+      <c r="H24">
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <v>267</v>
+      </c>
+      <c r="J24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f>AdvancedItems!A20</f>
+        <v>Glock_19X_pistol_slide</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>36</v>
+      </c>
+      <c r="I25">
+        <v>452</v>
+      </c>
+      <c r="J25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f>AdvancedItems!A21</f>
+        <v>Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>95</v>
+      </c>
+      <c r="J26">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>AdvancedItems!A9</f>
+        <v>Glock_9x19_19-round_magasine_(Coyote)</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f>AdvancedItems!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>183</v>
+      </c>
+      <c r="I27">
+        <v>121</v>
+      </c>
+      <c r="J27">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>AdvancedItems!A19</f>
+        <v>Glock_19X_9x19_barrel</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f>AdvancedItems!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G28">
+        <v>202</v>
+      </c>
+      <c r="H28">
+        <v>68</v>
+      </c>
+      <c r="I28">
+        <v>267</v>
+      </c>
+      <c r="J28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>AdvancedItems!A20</f>
+        <v>Glock_19X_pistol_slide</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <f>AdvancedItems!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>78</v>
+      </c>
+      <c r="I30">
+        <v>462</v>
+      </c>
+      <c r="J30">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f>AdvancedItems!A17</f>
+        <v>Glock_19X_front_sight</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>22</v>
+      </c>
+      <c r="I31">
+        <v>55</v>
+      </c>
+      <c r="J31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>AdvancedItems!A18</f>
+        <v>Glock_19X_rear_sight</v>
+      </c>
+      <c r="G32">
+        <v>425</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>443</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>AdvancedItems!A17</f>
+        <v>Glock_19X_front_sight</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f>AdvancedItems!A20</f>
+        <v>Glock_19X_pistol_slide</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>AdvancedItems!A18</f>
+        <v>Glock_19X_rear_sight</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <f>AdvancedItems!A20</f>
+        <v>Glock_19X_pistol_slide</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>AdvancedItems!A21</f>
+        <v>Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f>AdvancedItems!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G35">
+        <v>83</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>159</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2853,7 @@
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2106,54 +2865,58 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="29" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>System!A10</f>
+        <v>WeaponMain</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>System!A5 &amp; ";" &amp; System!A7 &amp; ";" &amp; System!A8</f>
+        <v>Grip;Handguard;WeaponBody</v>
+      </c>
+      <c r="F2" t="str">
+        <f>AdvancedItems!A2</f>
+        <v>AKS-74U_Body</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3158,4 +3921,1443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>System!A8</f>
+        <v>WeaponBody</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9">
+        <v>1</v>
+      </c>
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="9">
+        <v>800</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="X2" s="9">
+        <v>500</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>System!A8</f>
+        <v>WeaponBody</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>System!A7</f>
+        <v>Handguard</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>System!A7</f>
+        <v>Handguard</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>System!A11</f>
+        <v>Stok</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>System!A3</f>
+        <v>Magasine</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9">
+        <v>30</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>System!A3</f>
+        <v>Magasine</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9">
+        <v>60</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9">
+        <v>-5</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>System!A3</f>
+        <v>Magasine</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9">
+        <v>19</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>System!A5</f>
+        <v>Grip</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>System!A5</f>
+        <v>Grip</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>System!A6</f>
+        <v>VerticalGrip</v>
+      </c>
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>System!A2</f>
+        <v>MuzzleBreak</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9">
+        <v>-2</v>
+      </c>
+      <c r="W13" s="9">
+        <v>10</v>
+      </c>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="str">
+        <f>System!A4</f>
+        <v>Dustcover</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="str">
+        <f>System!A4</f>
+        <v>Dustcover</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="str">
+        <f>System!A9</f>
+        <v>Sight</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="str">
+        <f>System!A9</f>
+        <v>Sight</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="str">
+        <f>System!A9</f>
+        <v>Sight</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="str">
+        <f>System!A12</f>
+        <v>Barrel</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="str">
+        <f>System!A13</f>
+        <v>Slide</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="str">
+        <f>System!A14</f>
+        <v>Laser/Light</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="Stoks" sheetId="22" r:id="rId14"/>
     <sheet name="Magasines" sheetId="21" r:id="rId15"/>
     <sheet name="Armors" sheetId="5" r:id="rId16"/>
-    <sheet name="Backpacks" sheetId="6" r:id="rId17"/>
-    <sheet name="Boots" sheetId="7" r:id="rId18"/>
+    <sheet name="Boots" sheetId="7" r:id="rId17"/>
+    <sheet name="Backpacks" sheetId="6" r:id="rId18"/>
     <sheet name="Cash" sheetId="8" r:id="rId19"/>
     <sheet name="Fingers" sheetId="9" r:id="rId20"/>
     <sheet name="Headsets" sheetId="10" r:id="rId21"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="599">
   <si>
     <t>PartName</t>
   </si>
@@ -1838,6 +1838,12 @@
   </si>
   <si>
     <t>AKS-74U HG</t>
+  </si>
+  <si>
+    <t>GameElements/ItemContainers/Backpacks/TestBackpack</t>
+  </si>
+  <si>
+    <t>GameElements/ItemContainers/Vests/TestVest</t>
   </si>
 </sst>
 </file>
@@ -2234,7 +2240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -8835,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10205,684 +10211,6 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AA2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A16</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11041,6 +10369,687 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="str">
+        <f>System!A16</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
     </row>
@@ -16525,7 +16534,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AA2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16681,6 +16690,9 @@
       </c>
       <c r="Q2">
         <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -2240,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J986"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2469,16 +2469,16 @@
         <v>52</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8841,7 +8841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="616">
   <si>
     <t>PartName</t>
   </si>
@@ -1852,16 +1852,49 @@
     <t>MuzzleVelocity</t>
   </si>
   <si>
-    <t>WeaponTypes</t>
-  </si>
-  <si>
-    <t>WeaponMain</t>
-  </si>
-  <si>
-    <t>Handgun</t>
-  </si>
-  <si>
     <t>Melee</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>Carbine</t>
+  </si>
+  <si>
+    <t>AssaultRifle</t>
+  </si>
+  <si>
+    <t>BattleRifle</t>
+  </si>
+  <si>
+    <t>SniperRifle</t>
+  </si>
+  <si>
+    <t>AutomaticRifle</t>
+  </si>
+  <si>
+    <t>MachineGun</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>PDW</t>
+  </si>
+  <si>
+    <t>MainWeapons</t>
+  </si>
+  <si>
+    <t>SecondaryWeapons</t>
   </si>
 </sst>
 </file>
@@ -9327,8 +9360,8 @@
         <v>96</v>
       </c>
       <c r="C2" t="str">
-        <f>System!B3</f>
-        <v>Handgun</v>
+        <f>System!D3</f>
+        <v>Pistol</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -9694,7 +9727,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10286,8 +10319,8 @@
         <v>153</v>
       </c>
       <c r="C11" t="str">
-        <f>Backpacks!C2</f>
-        <v>Backpack</v>
+        <f>System!A13</f>
+        <v>Armor</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
@@ -11485,15 +11518,15 @@
         <v>39</v>
       </c>
       <c r="C2" t="str">
-        <f>System!B2</f>
-        <v>WeaponMain</v>
+        <f>System!C4</f>
+        <v>Carbine</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
       </c>
       <c r="E2" t="str">
-        <f>System!A5 &amp; ";" &amp; System!B3 &amp; ";" &amp; System!A7</f>
-        <v>Grip;Handgun;WeaponBody</v>
+        <f>System!A5 &amp; ";" &amp; System!D3 &amp; ";" &amp; System!A7</f>
+        <v>Grip;Pistol;WeaponBody</v>
       </c>
       <c r="F2" t="str">
         <f>WeaponBodies!A2</f>
@@ -14820,7 +14853,7 @@
   <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14953,7 +14986,7 @@
         <v>339</v>
       </c>
       <c r="C2" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -15004,7 +15037,7 @@
         <v>342</v>
       </c>
       <c r="C3" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D3" t="s">
@@ -15055,7 +15088,7 @@
         <v>345</v>
       </c>
       <c r="C4" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D4" t="s">
@@ -15106,7 +15139,7 @@
         <v>348</v>
       </c>
       <c r="C5" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D5" t="s">
@@ -15157,7 +15190,7 @@
         <v>351</v>
       </c>
       <c r="C6" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D6" t="s">
@@ -15208,7 +15241,7 @@
         <v>354</v>
       </c>
       <c r="C7" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D7" t="s">
@@ -15259,7 +15292,7 @@
         <v>357</v>
       </c>
       <c r="C8" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D8" t="s">
@@ -15310,7 +15343,7 @@
         <v>360</v>
       </c>
       <c r="C9" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D9" t="s">
@@ -15361,7 +15394,7 @@
         <v>363</v>
       </c>
       <c r="C10" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D10" t="s">
@@ -15412,7 +15445,7 @@
         <v>366</v>
       </c>
       <c r="C11" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D11" t="s">
@@ -15463,7 +15496,7 @@
         <v>369</v>
       </c>
       <c r="C12" t="str">
-        <f>System!B4</f>
+        <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D12" t="s">
@@ -18983,151 +19016,192 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>483</v>
       </c>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="19" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -2099,8 +2099,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -17641,8 +17641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17818,20 +17818,20 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="AC2" s="11">
-        <v>0</v>
+      <c r="AC2" s="13">
+        <v>7.62</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>0.08</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -19018,7 +19018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -19034,13 +19034,13 @@
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>615</v>
       </c>
     </row>
@@ -19048,13 +19048,13 @@
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>602</v>
       </c>
     </row>
@@ -19062,10 +19062,10 @@
       <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>603</v>
       </c>
     </row>
@@ -19073,7 +19073,7 @@
       <c r="A4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>606</v>
       </c>
     </row>
@@ -19081,7 +19081,7 @@
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>607</v>
       </c>
     </row>
@@ -19089,7 +19089,7 @@
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>608</v>
       </c>
     </row>
@@ -19097,7 +19097,7 @@
       <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>609</v>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="A8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>610</v>
       </c>
     </row>
@@ -19113,7 +19113,7 @@
       <c r="A9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>611</v>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
       <c r="A10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>612</v>
       </c>
     </row>
@@ -19129,7 +19129,7 @@
       <c r="A11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>613</v>
       </c>
     </row>
@@ -19162,13 +19162,13 @@
       <c r="A17" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -19179,7 +19179,7 @@
       <c r="A20" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="19" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="617">
   <si>
     <t>PartName</t>
   </si>
@@ -1895,17 +1895,28 @@
   </si>
   <si>
     <t>SecondaryWeapons</t>
+  </si>
+  <si>
+    <t>HandGuard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2081,25 +2092,26 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -11478,8 +11490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11525,8 +11537,8 @@
         <v>45</v>
       </c>
       <c r="E2" t="str">
-        <f>System!A5 &amp; ";" &amp; System!D3 &amp; ";" &amp; System!A7</f>
-        <v>Grip;Pistol;WeaponBody</v>
+        <f>System!A5 &amp; ";" &amp; System!A26 &amp; ";" &amp; System!A7</f>
+        <v>Grip;HandGuard;WeaponBody</v>
       </c>
       <c r="F2" t="str">
         <f>WeaponBodies!A2</f>
@@ -14843,7 +14855,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16236,7 +16248,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17632,7 +17644,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17641,7 +17653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
@@ -19008,7 +19020,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19016,10 +19028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19204,6 +19216,11 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -19479,7 +19496,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19611,8 +19628,8 @@
         <v>591</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A5</f>
-        <v>Grip</v>
+        <f>System!A26</f>
+        <v>HandGuard</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -19665,8 +19682,8 @@
         <v>593</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A5</f>
-        <v>Grip</v>
+        <f>System!A26</f>
+        <v>HandGuard</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="15" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="617">
   <si>
     <t>PartName</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Barrel</t>
   </si>
   <si>
-    <t>5.45x39</t>
-  </si>
-  <si>
     <t>Slide</t>
   </si>
   <si>
@@ -1898,17 +1895,28 @@
   </si>
   <si>
     <t>HandGuard</t>
+  </si>
+  <si>
+    <t>CartridgeSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2092,25 +2100,26 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3444,13 +3453,13 @@
         <v>TestArmor</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3477,13 +3486,13 @@
         <v>_5_11_Tactical_TacTec_plate_carrier</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3510,13 +3519,13 @@
         <v>_6B5_16_Zh_86_Uley_armored_rig</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3543,13 +3552,13 @@
         <v>_6B43_6A_Zabralo_Sh_body_armor</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3576,13 +3585,13 @@
         <v>BNTI_Kirasa_N_bodyarmor</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3609,13 +3618,13 @@
         <v>BNTI_Module_3M_body_armor</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3642,13 +3651,13 @@
         <v>Crye_Precision_AVS_plate_carrier</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3675,13 +3684,13 @@
         <v>IOTV_Gen4_body_armor_Assault_Kit</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3708,13 +3717,13 @@
         <v>IOTV_Gen4_body_armor_Full_Protection_Kit</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3741,13 +3750,13 @@
         <v>IOTV_Gen4_body_armor_High_Mobility_Kit</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3774,13 +3783,13 @@
         <v>PACA_Soft_Armor</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3807,13 +3816,13 @@
         <v>TestBackpack</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3840,13 +3849,13 @@
         <v>Camelback_Tri_Zip_assault_backpack</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3873,13 +3882,13 @@
         <v>Flyye_MBSS_backpack</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3906,13 +3915,13 @@
         <v>Gruppa_99_T30_backpack</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3939,13 +3948,13 @@
         <v>Sanitars_bag</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3972,13 +3981,13 @@
         <v>Scav_backpack</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4005,13 +4014,13 @@
         <v>Tactical_sling_bag</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4038,13 +4047,13 @@
         <v>Transformer_Bag</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4071,13 +4080,13 @@
         <v>Vertx_Ready_Pack_Backpack</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4104,13 +4113,13 @@
         <v>VKBO Army Bag</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4137,13 +4146,13 @@
         <v>WARTECH_Berkut_Backpack</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4170,13 +4179,13 @@
         <v>TestBoots</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4203,13 +4212,13 @@
         <v>Dollar_1</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4236,13 +4245,13 @@
         <v>TestFingers</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4269,13 +4278,13 @@
         <v>TestHeadset</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4302,13 +4311,13 @@
         <v>GSSh_01_active_headset</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4335,13 +4344,13 @@
         <v>MSA_Sordin_Supreme_headset</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4368,13 +4377,13 @@
         <v>Ops_Core_FAST_RAC_Headset</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4401,13 +4410,13 @@
         <v>OPSMEN_Earmor_M32_headset</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4434,13 +4443,13 @@
         <v>Peltor_ComTac_IV_Hybrid_headset</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4467,13 +4476,13 @@
         <v>Peltor_ComTac_V_headset</v>
       </c>
       <c r="B67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4500,13 +4509,13 @@
         <v>Peltor_ComTac_VI_headset</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4533,13 +4542,13 @@
         <v>Safariland_Liberator_HP_2_0_Headset</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4566,13 +4575,13 @@
         <v>Walkers_Razor_Digital_headset</v>
       </c>
       <c r="B70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4599,13 +4608,13 @@
         <v>Walkers_XCEL_500BT_Digital_headset</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4632,13 +4641,13 @@
         <v>TestHelmet</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4665,13 +4674,13 @@
         <v>_6B47_Ratnik_BSh_helmet_Olive_Drab</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4698,13 +4707,13 @@
         <v>Galvion_Caiman_Hybrid_helmet_Grey</v>
       </c>
       <c r="B74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4731,13 +4740,13 @@
         <v>Kolpak_1S_riot_helmet</v>
       </c>
       <c r="B75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4764,13 +4773,13 @@
         <v>LShZ_lightweight_helmet_Olive_Drab</v>
       </c>
       <c r="B76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4797,13 +4806,13 @@
         <v>PSh_97_DJETA_riot_helmet</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4830,13 +4839,13 @@
         <v>ShPM_Firefighter_helmet</v>
       </c>
       <c r="B78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4863,13 +4872,13 @@
         <v>SSh_68_steel_helmet_Olive_Drab</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4896,13 +4905,13 @@
         <v>Tac_Kek_FAST_MT_helmet_Replica</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4929,13 +4938,13 @@
         <v>TSh_4M_L_soft_tank_crew_helmet</v>
       </c>
       <c r="B81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4962,13 +4971,13 @@
         <v>UNTAR_helmet</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4995,13 +5004,13 @@
         <v>TestMask</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5028,13 +5037,13 @@
         <v>Atomic_Defense_CQCM_ballistic_mask_Black</v>
       </c>
       <c r="B84" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5061,13 +5070,13 @@
         <v>Death_Knight_mask</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5094,13 +5103,13 @@
         <v>Death_Shadow_lightweight_armored_mask</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5127,13 +5136,13 @@
         <v>Glorious_E_lightweight_armored_mask</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5160,13 +5169,13 @@
         <v>Shattered_lightweight_armored_mask</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5193,13 +5202,13 @@
         <v>Tagillas_welding_mask_Gorilla</v>
       </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5226,13 +5235,13 @@
         <v>Tagillas_welding_mask_UBEY</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5259,13 +5268,13 @@
         <v>AI_2</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5292,13 +5301,13 @@
         <v>TestMelee</v>
       </c>
       <c r="B92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5325,13 +5334,13 @@
         <v>APOK_Tactical_Wasteland_Gladius</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5358,13 +5367,13 @@
         <v>Unitted_Cutlery_M48_Tactical_Kukri</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5391,13 +5400,13 @@
         <v>PR_Taran_police_baton</v>
       </c>
       <c r="B95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5424,13 +5433,13 @@
         <v>SOG_Voodoo_Hawk_tactical_tomahawk</v>
       </c>
       <c r="B96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5457,13 +5466,13 @@
         <v>UVSR_Taiga_1_survival_machete</v>
       </c>
       <c r="B97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -5490,13 +5499,13 @@
         <v>Cultist_knife</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5523,13 +5532,13 @@
         <v>Camper_axe</v>
       </c>
       <c r="B99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5556,13 +5565,13 @@
         <v>SP_8_Survival_Machete</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5589,13 +5598,13 @@
         <v>Miller_Bros_Blades_M_2_Tactical_Sword</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5622,13 +5631,13 @@
         <v>ER_FULCRUM_BAYONET</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5655,13 +5664,13 @@
         <v>TestPant</v>
       </c>
       <c r="B103" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5688,13 +5697,13 @@
         <v>USEC_AC_Ranger_Green</v>
       </c>
       <c r="B104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5721,13 +5730,13 @@
         <v>USEC_Base</v>
       </c>
       <c r="B105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5754,13 +5763,13 @@
         <v>USEC_Defender</v>
       </c>
       <c r="B106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5787,13 +5796,13 @@
         <v>USEC_Legionnaire</v>
       </c>
       <c r="B107" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5820,13 +5829,13 @@
         <v>USEC_Outdoor_Tactical</v>
       </c>
       <c r="B108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5853,13 +5862,13 @@
         <v>USEC_Rangemaster</v>
       </c>
       <c r="B109" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5886,13 +5895,13 @@
         <v>USEC_Ranger_Jeans</v>
       </c>
       <c r="B110" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5919,13 +5928,13 @@
         <v>USEC_Sage_Warrior</v>
       </c>
       <c r="B111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5952,13 +5961,13 @@
         <v>USEC_Taclife_Terrain</v>
       </c>
       <c r="B112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5985,13 +5994,13 @@
         <v>USEC_TIER3</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6018,13 +6027,13 @@
         <v>TestSkin</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6051,13 +6060,13 @@
         <v>Adik_Tracksuit</v>
       </c>
       <c r="B115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6084,13 +6093,13 @@
         <v>USEC_AC_Ranger_Green</v>
       </c>
       <c r="B116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6117,13 +6126,13 @@
         <v>USEC_Adaptive_Combat</v>
       </c>
       <c r="B117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6150,13 +6159,13 @@
         <v>USEC_Aggressor_TAC</v>
       </c>
       <c r="B118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6183,13 +6192,13 @@
         <v>USEC_Base_Upper</v>
       </c>
       <c r="B119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6216,13 +6225,13 @@
         <v>USEC_BOSS_Delta</v>
       </c>
       <c r="B120" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6249,13 +6258,13 @@
         <v>USEC_Mission</v>
       </c>
       <c r="B121" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6282,13 +6291,13 @@
         <v>USEC_PCU_Ironsight</v>
       </c>
       <c r="B122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6315,13 +6324,13 @@
         <v>USEC_Sandstone</v>
       </c>
       <c r="B123" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6348,13 +6357,13 @@
         <v>USEC_Troubleshooter</v>
       </c>
       <c r="B124" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6381,13 +6390,13 @@
         <v>TestVest</v>
       </c>
       <c r="B125" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6414,13 +6423,13 @@
         <v>_6B5_15_Zh_86_Uley_armored_rig</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6447,13 +6456,13 @@
         <v>ANA_Tactical_M1_plate_carrier</v>
       </c>
       <c r="B127" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6480,13 +6489,13 @@
         <v>BlackRock_chest_rig</v>
       </c>
       <c r="B128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6513,13 +6522,13 @@
         <v>Scav_Vest</v>
       </c>
       <c r="B129" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6546,13 +6555,13 @@
         <v>Security_vest</v>
       </c>
       <c r="B130" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6579,13 +6588,13 @@
         <v>SOE_Micro_Rig</v>
       </c>
       <c r="B131" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6612,13 +6621,13 @@
         <v>Stich_Profi_Plate_Carrier_V2</v>
       </c>
       <c r="B132" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6645,13 +6654,13 @@
         <v>Tasmanian_Tiger_Plate_Carrier_MKIII</v>
       </c>
       <c r="B133" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6678,13 +6687,13 @@
         <v>Umka_M33_SET1_hunter_vest</v>
       </c>
       <c r="B134" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6711,13 +6720,13 @@
         <v>Velocity_Systems_MPPV_Multi_Purpose_Patrol_Vest</v>
       </c>
       <c r="B135" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6744,13 +6753,13 @@
         <v>7.62x39FMJ</v>
       </c>
       <c r="B136" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6777,13 +6786,13 @@
         <v>_12_70_8_5mm_Magnum_buckshot</v>
       </c>
       <c r="B137" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6810,13 +6819,13 @@
         <v>_12_70_Grizzly_40_slug</v>
       </c>
       <c r="B138" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6843,13 +6852,13 @@
         <v>_20_70_7_5mm_buckshot</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6876,13 +6885,13 @@
         <v>_23_75mm_Shrapnel_10_buckshot</v>
       </c>
       <c r="B140" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6909,13 +6918,13 @@
         <v>_9x18mm_PM_PSO_gzh</v>
       </c>
       <c r="B141" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6942,13 +6951,13 @@
         <v>_7_62x25mm_TT_AKBS</v>
       </c>
       <c r="B142" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6975,13 +6984,13 @@
         <v>_9x19mm_Green_Tracer</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7008,13 +7017,13 @@
         <v>_45_ACP_Lasermatch_FMJ</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7041,13 +7050,13 @@
         <v>_50_AE_Hawk_JSP</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7074,13 +7083,13 @@
         <v>_9x21mm_7U4</v>
       </c>
       <c r="B146" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7107,13 +7116,13 @@
         <v>_357_Magnum_JHP</v>
       </c>
       <c r="B147" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7140,13 +7149,13 @@
         <v>_5_7x28mm_SS197SR</v>
       </c>
       <c r="B148" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7173,13 +7182,13 @@
         <v>_4_6x30mm_JSP_SX</v>
       </c>
       <c r="B149" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7206,13 +7215,13 @@
         <v>_9x39mm_PAB_9_gs</v>
       </c>
       <c r="B150" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7239,13 +7248,13 @@
         <v>_366_TKM_EKO</v>
       </c>
       <c r="B151" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7272,13 +7281,13 @@
         <v>_5_45x39mm_FMJ</v>
       </c>
       <c r="B152" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7305,13 +7314,13 @@
         <v>_5_56x45mm_M856</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7338,13 +7347,13 @@
         <v>_7_62x39mm_T_45M1_gzh</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7371,13 +7380,13 @@
         <v>_300_Blackout_V_Max</v>
       </c>
       <c r="B155" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7404,13 +7413,13 @@
         <v>_6_8x51mm_SIG_Hybrid</v>
       </c>
       <c r="B156" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7437,13 +7446,13 @@
         <v>_7_62x51mm_M80</v>
       </c>
       <c r="B157" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7470,13 +7479,13 @@
         <v>_7_62x54mm_R_SNB_gzh</v>
       </c>
       <c r="B158" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7503,13 +7512,13 @@
         <v>_12_7x55mm_PS12</v>
       </c>
       <c r="B159" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -8365,10 +8374,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,7 +8400,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8438,10 +8447,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8470,29 +8479,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -8546,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8607,10 +8622,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8633,7 +8648,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8680,10 +8695,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8712,29 +8727,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -8795,10 +8816,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8821,7 +8842,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8868,10 +8889,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8900,29 +8921,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8989,10 +9016,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,7 +9042,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9062,10 +9089,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9094,29 +9121,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -9173,7 +9206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9237,10 +9270,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9263,7 +9296,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9310,10 +9343,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9342,29 +9375,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -9428,10 +9467,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9454,7 +9493,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9501,10 +9540,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9533,29 +9572,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9615,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9675,7 +9720,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -9736,10 +9781,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9763,7 +9808,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9810,10 +9855,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9842,41 +9887,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9915,19 +9966,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C3" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9966,19 +10017,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="C4" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10017,19 +10068,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="C5" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -10068,19 +10119,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C6" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -10119,19 +10170,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="C7" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10170,19 +10221,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="C8" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -10221,19 +10272,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10272,19 +10323,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="C10" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10323,19 +10374,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C11" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10374,19 +10425,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="C12" t="str">
         <f>System!A13</f>
         <v>Armor</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -10433,10 +10484,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10460,7 +10511,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -10507,10 +10558,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -10539,41 +10590,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="str">
         <f>System!A15</f>
         <v>Boots</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -10619,10 +10676,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10646,7 +10703,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -10693,10 +10750,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -10725,41 +10782,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -10798,22 +10861,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="C3" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10852,19 +10915,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10903,19 +10966,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="C5" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -10954,19 +11017,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -11005,19 +11068,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11056,19 +11119,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="C8" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -11107,19 +11170,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="C9" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -11158,19 +11221,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="C10" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -11209,19 +11272,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -11260,19 +11323,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="C12" t="str">
         <f>System!A14</f>
         <v>Backpack</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -11318,10 +11381,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11329,7 +11392,7 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -11376,10 +11439,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -11408,41 +11471,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="C2" t="str">
         <f>System!A16</f>
         <v>Cash</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11490,7 +11559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -12551,10 +12620,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12578,7 +12647,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -12625,10 +12694,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -12657,41 +12726,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="str">
         <f>System!A17</f>
         <v>Finger</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12737,10 +12812,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12764,7 +12839,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -12811,10 +12886,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -12843,41 +12918,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12916,19 +12997,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="C3" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -12967,19 +13048,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="C4" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13018,19 +13099,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="C5" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13069,19 +13150,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="C6" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13120,19 +13201,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13171,19 +13252,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="C8" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13222,19 +13303,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="C9" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13273,19 +13354,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="C10" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -13324,19 +13405,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="C11" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -13375,19 +13456,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C12" t="str">
         <f>System!A18</f>
         <v>Headset</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -13433,10 +13514,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13460,7 +13541,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -13507,10 +13588,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -13539,41 +13620,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13612,19 +13699,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="C3" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -13663,19 +13750,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="C4" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13714,19 +13801,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="C5" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13765,19 +13852,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="C6" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13816,19 +13903,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="C7" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13867,19 +13954,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="C8" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13918,19 +14005,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="C9" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13969,19 +14056,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="C10" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -14020,19 +14107,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="C11" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -14071,19 +14158,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="C12" t="str">
         <f>System!A19</f>
         <v>Helmet</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -14129,10 +14216,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14156,7 +14243,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -14203,10 +14290,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14235,41 +14322,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -14308,19 +14401,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="C3" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -14359,19 +14452,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="C4" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -14410,19 +14503,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="C5" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -14461,19 +14554,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C6" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -14512,19 +14605,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="C7" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -14563,19 +14656,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -14614,19 +14707,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C9" t="str">
         <f>System!A20</f>
         <v>Mask</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -14672,10 +14765,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14699,7 +14792,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -14746,10 +14839,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14778,41 +14871,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="C2" t="str">
         <f>System!A21</f>
         <v>Med</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -14850,22 +14949,25 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5</v>
       </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14889,7 +14991,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -14936,10 +15038,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14968,41 +15070,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15041,19 +15149,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="C3" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15092,19 +15200,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="C4" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -15143,19 +15251,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="C5" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15194,19 +15302,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>350</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>351</v>
       </c>
       <c r="C6" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -15245,19 +15353,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="C7" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15296,19 +15404,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="C8" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -15347,19 +15455,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="C9" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -15398,19 +15506,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>363</v>
       </c>
       <c r="C10" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -15449,19 +15557,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="C11" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -15500,19 +15608,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="C12" t="str">
         <f>System!B2</f>
         <v>Melee</v>
       </c>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -15558,10 +15666,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15585,7 +15693,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -15632,10 +15740,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -15664,41 +15772,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15737,19 +15851,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>385</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>386</v>
       </c>
       <c r="C3" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15788,19 +15902,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="C4" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -15839,19 +15953,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="C5" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15890,19 +16004,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>392</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>393</v>
       </c>
       <c r="C6" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -15941,19 +16055,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>394</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>395</v>
       </c>
       <c r="C7" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15992,19 +16106,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="C8" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -16043,19 +16157,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="C9" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -16094,19 +16208,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="C10" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16145,19 +16259,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="C11" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16196,19 +16310,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="C12" t="str">
         <f>System!A22</f>
         <v>Pant</v>
       </c>
       <c r="D12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -16248,17 +16362,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16282,7 +16396,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -16329,10 +16443,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -16361,41 +16475,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -16434,19 +16554,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>422</v>
       </c>
       <c r="C3" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -16485,19 +16605,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16536,19 +16656,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>425</v>
       </c>
       <c r="C5" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -16587,19 +16707,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>426</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="C6" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -16638,19 +16758,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="C7" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -16689,19 +16809,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="C8" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -16740,19 +16860,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>433</v>
       </c>
       <c r="C9" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -16791,19 +16911,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="C10" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16842,19 +16962,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>436</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>437</v>
       </c>
       <c r="C11" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16893,19 +17013,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>439</v>
       </c>
       <c r="C12" t="str">
         <f>System!A23</f>
         <v>Skin</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -16951,10 +17071,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16978,7 +17098,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -17025,10 +17145,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -17057,41 +17177,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17130,22 +17256,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>454</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>455</v>
       </c>
       <c r="C3" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17184,19 +17310,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="C4" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17235,19 +17361,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="C5" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17286,19 +17412,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>462</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>463</v>
       </c>
       <c r="C6" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -17337,19 +17463,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>465</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>466</v>
       </c>
       <c r="C7" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17388,19 +17514,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="C8" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -17439,19 +17565,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="C9" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -17490,19 +17616,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>475</v>
       </c>
       <c r="C10" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -17541,19 +17667,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>478</v>
       </c>
       <c r="C11" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -17592,19 +17718,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>481</v>
       </c>
       <c r="C12" t="str">
         <f>System!A24</f>
         <v>Vest</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17644,17 +17770,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17676,10 +17802,11 @@
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
     <col min="25" max="25" width="13.140625" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -17726,10 +17853,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -17758,41 +17885,47 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17830,35 +17963,38 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="AC2" s="13">
+      <c r="AD2" s="13">
         <v>7.62</v>
       </c>
-      <c r="AD2">
+      <c r="AE2" s="13">
+        <v>39</v>
+      </c>
+      <c r="AF2">
         <v>10</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>2</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AH2" s="13">
         <v>0.08</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>497</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>498</v>
       </c>
       <c r="C3" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17897,19 +18033,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>501</v>
       </c>
       <c r="C4" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17948,19 +18084,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>504</v>
       </c>
       <c r="C5" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17999,19 +18135,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="C6" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -18050,19 +18186,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>510</v>
       </c>
       <c r="C7" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -18101,19 +18237,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>511</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>513</v>
       </c>
       <c r="C8" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -18152,19 +18288,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>516</v>
       </c>
       <c r="C9" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -18203,19 +18339,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>519</v>
       </c>
       <c r="C10" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -18254,19 +18390,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="C11" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -18305,19 +18441,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>526</v>
       </c>
       <c r="C12" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -18356,19 +18492,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>529</v>
       </c>
       <c r="C13" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -18407,19 +18543,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="C14" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -18458,19 +18594,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>534</v>
       </c>
       <c r="C15" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -18509,19 +18645,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>537</v>
       </c>
       <c r="C16" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -18560,19 +18696,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="C17" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -18611,19 +18747,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>541</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>543</v>
       </c>
       <c r="C18" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -18661,20 +18797,38 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="AD18">
+        <v>5.45</v>
+      </c>
+      <c r="AE18">
+        <v>39</v>
+      </c>
+      <c r="AF18">
+        <v>7</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0.06</v>
+      </c>
+      <c r="AI18">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>544</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="C19" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -18713,19 +18867,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>549</v>
       </c>
       <c r="C20" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -18764,19 +18918,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>550</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>552</v>
       </c>
       <c r="C21" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -18815,19 +18969,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>553</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="C22" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -18866,19 +19020,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>556</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>558</v>
       </c>
       <c r="C23" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -18917,19 +19071,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>559</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="C24" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -18968,19 +19122,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="C25" t="str">
         <f>System!A25</f>
         <v>Ammunition</v>
       </c>
       <c r="D25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -19020,7 +19174,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19047,13 +19201,13 @@
         <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19061,13 +19215,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>601</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -19075,10 +19229,10 @@
         <v>113</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -19086,7 +19240,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -19094,7 +19248,7 @@
         <v>91</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -19102,7 +19256,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -19110,7 +19264,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -19118,7 +19272,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -19126,7 +19280,7 @@
         <v>116</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -19134,93 +19288,93 @@
         <v>118</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -19230,10 +19384,283 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A7</f>
+        <v>WeaponBody</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>800</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>500</v>
+      </c>
+      <c r="Y2">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>5.45</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A7</f>
+        <v>WeaponBody</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19256,7 +19683,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -19303,10 +19730,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19335,38 +19762,44 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>590</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A7</f>
-        <v>WeaponBody</v>
+        <f>System!A26</f>
+        <v>HandGuard</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -19381,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -19407,41 +19840,20 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>800</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>500</v>
-      </c>
       <c r="Y2">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>592</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A7</f>
-        <v>WeaponBody</v>
+        <f>System!A26</f>
+        <v>HandGuard</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -19456,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -19482,8 +19894,8 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>1</v>
+      <c r="Y3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -19491,12 +19903,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19519,7 +19931,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -19566,10 +19978,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19598,38 +20010,44 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>590</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>99</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A26</f>
-        <v>HandGuard</v>
+        <f>System!A8</f>
+        <v>Sight</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -19670,20 +20088,23 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>15</v>
+      </c>
       <c r="Y2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>108</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A26</f>
-        <v>HandGuard</v>
+        <f>System!A8</f>
+        <v>Sight</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -19724,8 +20145,56 @@
       <c r="Q3">
         <v>0</v>
       </c>
-      <c r="Y3">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A8</f>
+        <v>Sight</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19733,12 +20202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19761,7 +20230,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -19808,10 +20277,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19840,38 +20309,44 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A8</f>
-        <v>Sight</v>
+        <f>System!A12</f>
+        <v>Laser/Light</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -19910,114 +20385,6 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>15</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A8</f>
-        <v>Sight</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A8</f>
-        <v>Sight</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
         <v>0</v>
       </c>
     </row>
@@ -20026,12 +20393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20054,7 +20421,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20101,10 +20468,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -20133,38 +20500,44 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A12</f>
-        <v>Laser/Light</v>
+        <f>System!A11</f>
+        <v>Slide</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
@@ -20179,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -20211,12 +20584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20239,7 +20612,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20286,10 +20659,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -20318,214 +20691,35 @@
       <c r="Z1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A11</f>
-        <v>Slide</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="15" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="617">
   <si>
     <t>PartName</t>
   </si>
@@ -1904,11 +1904,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2100,25 +2108,26 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8374,10 +8383,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8400,7 +8409,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8476,38 +8485,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8622,10 +8625,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8648,7 +8651,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8724,38 +8727,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -8816,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8842,7 +8839,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -8918,38 +8915,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9016,10 +9007,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9042,7 +9033,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9118,38 +9109,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -9206,7 +9191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -9270,10 +9255,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9296,7 +9281,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9372,38 +9357,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -9467,10 +9446,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9493,7 +9472,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9569,38 +9548,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9659,8 +9632,14 @@
       <c r="Y2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>5.45</v>
+      </c>
+      <c r="AC2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9720,7 +9699,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -9781,10 +9760,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9808,7 +9787,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -9884,38 +9863,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>124</v>
       </c>
@@ -9966,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -10017,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -10068,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -10119,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -10170,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -10221,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -10272,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -10323,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -10374,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -10425,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -10484,10 +10457,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10511,7 +10484,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -10587,38 +10560,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -10676,10 +10643,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,7 +10670,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -10779,38 +10746,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -10864,7 +10825,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -10915,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>172</v>
       </c>
@@ -10966,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -11017,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -11068,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -11119,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -11170,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>183</v>
       </c>
@@ -11221,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -11272,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>188</v>
       </c>
@@ -11323,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -11381,10 +11342,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11392,7 +11353,7 @@
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -11468,38 +11429,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>207</v>
       </c>
@@ -12620,9 +12575,2323 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A17</f>
+        <v>Finger</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="str">
+        <f>System!A18</f>
+        <v>Headset</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" t="str">
+        <f>System!A19</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG9"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!A20</f>
+        <v>Mask</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="A1:AG1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A21</f>
+        <v>Med</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -12647,7 +14916,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -12723,50 +14992,44 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A17</f>
-        <v>Finger</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12802,6 +15065,516 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="str">
+        <f>System!B2</f>
+        <v>Melee</v>
+      </c>
+      <c r="D12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
     </row>
@@ -12810,11 +15583,708 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C6" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" t="str">
+        <f>System!A22</f>
+        <v>Pant</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG12"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -12839,7 +16309,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -12915,50 +16385,44 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
+        <v>417</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>System!A23</f>
+        <v>Skin</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12997,19 +16461,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>219</v>
+        <v>421</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>220</v>
+        <f>System!A23</f>
+        <v>Skin</v>
+      </c>
+      <c r="D3" t="s">
+        <v>419</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -13048,19 +16512,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>384</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>222</v>
+        <v>422</v>
       </c>
       <c r="C4" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>419</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13099,19 +16563,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>423</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>225</v>
+        <v>424</v>
       </c>
       <c r="C5" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>419</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13150,19 +16614,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>227</v>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>425</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>228</v>
+        <v>426</v>
       </c>
       <c r="C6" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>419</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13201,19 +16665,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>230</v>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>427</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>232</v>
+        <v>428</v>
       </c>
       <c r="C7" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13252,19 +16716,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>429</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>234</v>
+        <v>430</v>
       </c>
       <c r="C8" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>419</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13303,19 +16767,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>237</v>
+        <v>432</v>
       </c>
       <c r="C9" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D9" t="s">
-        <v>238</v>
+        <v>419</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13354,19 +16818,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="C10" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>241</v>
+        <f>System!A23</f>
+        <v>Skin</v>
+      </c>
+      <c r="D10" t="s">
+        <v>419</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -13405,19 +16869,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>243</v>
+        <v>436</v>
       </c>
       <c r="C11" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -13456,19 +16920,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>245</v>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>246</v>
+        <v>438</v>
       </c>
       <c r="C12" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
+        <f>System!A23</f>
+        <v>Skin</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -13512,11 +16976,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -13541,7 +17005,7 @@
     <col min="25" max="25" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -13617,3595 +17081,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D6" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A21</f>
-        <v>Med</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>5</v>
-      </c>
-      <c r="AC2">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>361</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D6" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D7" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>395</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D10" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D6" t="s">
-        <v>419</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D8" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D10" t="s">
-        <v>419</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D12" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>451</v>
       </c>
@@ -17259,7 +17160,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>453</v>
       </c>
@@ -17310,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>455</v>
       </c>
@@ -17361,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -17412,7 +17313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -17463,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>464</v>
       </c>
@@ -17514,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -17565,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -17616,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>473</v>
       </c>
@@ -17667,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>476</v>
       </c>
@@ -17718,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>479</v>
       </c>
@@ -17770,17 +17671,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17803,10 +17704,9 @@
     <col min="19" max="19" width="16.85546875" customWidth="1"/>
     <col min="25" max="25" width="13.140625" customWidth="1"/>
     <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -17882,38 +17782,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>494</v>
       </c>
@@ -17963,26 +17857,26 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AB2" s="13">
         <v>7.62</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AC2" s="13">
         <v>39</v>
       </c>
-      <c r="AF2">
+      <c r="AD2">
         <v>10</v>
       </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="13">
+        <v>0.08</v>
+      </c>
       <c r="AG2">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="AI2">
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>496</v>
       </c>
@@ -18033,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -18084,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>502</v>
       </c>
@@ -18135,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>505</v>
       </c>
@@ -18186,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>508</v>
       </c>
@@ -18237,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>511</v>
       </c>
@@ -18288,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>514</v>
       </c>
@@ -18339,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>517</v>
       </c>
@@ -18390,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>520</v>
       </c>
@@ -18441,7 +18335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>524</v>
       </c>
@@ -18492,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -18543,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>530</v>
       </c>
@@ -18594,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>532</v>
       </c>
@@ -18645,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>535</v>
       </c>
@@ -18696,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -18747,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>541</v>
       </c>
@@ -18797,26 +18691,26 @@
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>5.45</v>
+      </c>
+      <c r="AC18">
+        <v>39</v>
+      </c>
       <c r="AD18">
-        <v>5.45</v>
+        <v>7</v>
       </c>
       <c r="AE18">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AF18">
-        <v>7</v>
+        <v>0.06</v>
       </c>
       <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>0.06</v>
-      </c>
-      <c r="AI18">
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>544</v>
       </c>
@@ -18867,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>547</v>
       </c>
@@ -18918,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>550</v>
       </c>
@@ -18969,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>553</v>
       </c>
@@ -19020,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>556</v>
       </c>
@@ -19071,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>559</v>
       </c>
@@ -19122,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>562</v>
       </c>
@@ -19174,7 +19068,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19185,7 +19079,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19368,7 +19262,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="16" t="s">
         <v>482</v>
       </c>
     </row>
@@ -19384,10 +19278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19411,7 +19305,7 @@
     <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -19487,38 +19381,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -19589,14 +19477,14 @@
       <c r="Y2">
         <v>52</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="AB2" s="15">
         <v>5.45</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AC2" s="15">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -19657,10 +19545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19683,7 +19571,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -19759,38 +19647,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>589</v>
       </c>
@@ -19844,7 +19726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>591</v>
       </c>
@@ -19905,10 +19787,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19931,7 +19813,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20007,38 +19889,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -20095,7 +19971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -20146,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -20204,10 +20080,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20230,7 +20106,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20306,38 +20182,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -20395,10 +20265,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20421,7 +20291,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20497,38 +20367,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -20586,10 +20450,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20612,7 +20476,7 @@
     <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -20688,38 +20552,32 @@
       <c r="Y1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>595</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>596</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="AI1" s="10" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="625">
   <si>
     <t>PartName</t>
   </si>
@@ -316,9 +316,6 @@
     <t>AKS-74U DC</t>
   </si>
   <si>
-    <t>Types</t>
-  </si>
-  <si>
     <t>Dustcover</t>
   </si>
   <si>
@@ -1852,12 +1849,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>Revolver</t>
-  </si>
-  <si>
-    <t>Pistol</t>
-  </si>
-  <si>
     <t>Rifle</t>
   </si>
   <si>
@@ -1876,39 +1867,80 @@
     <t>SniperRifle</t>
   </si>
   <si>
-    <t>AutomaticRifle</t>
-  </si>
-  <si>
     <t>MachineGun</t>
   </si>
   <si>
     <t>SMG</t>
   </si>
   <si>
-    <t>PDW</t>
-  </si>
-  <si>
-    <t>MainWeapons</t>
-  </si>
-  <si>
-    <t>SecondaryWeapons</t>
-  </si>
-  <si>
     <t>HandGuard</t>
   </si>
   <si>
     <t>CartridgeSize</t>
+  </si>
+  <si>
+    <t>HandGun</t>
+  </si>
+  <si>
+    <t>WeaponTypes</t>
+  </si>
+  <si>
+    <t>PartTypes</t>
+  </si>
+  <si>
+    <t>WearAbles</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>BulletTexturePath</t>
+  </si>
+  <si>
+    <t>ShootSoundPath</t>
+  </si>
+  <si>
+    <t>ReloadSoundPath</t>
+  </si>
+  <si>
+    <t>UnloadSoundPath</t>
+  </si>
+  <si>
+    <t>ChamberSoundPath</t>
+  </si>
+  <si>
+    <t>Textures/EffectTextures/BulletTEST</t>
+  </si>
+  <si>
+    <t>Sounds/WeaponTEST/TESTShoot</t>
+  </si>
+  <si>
+    <t>Sounds/WeaponTEST/TESTChamber</t>
+  </si>
+  <si>
+    <t>Sounds/WeaponTEST/TESTUnload</t>
+  </si>
+  <si>
+    <t>Sounds/WeaponTEST/TESTReload</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2021,6 +2053,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2106,36 +2146,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="5" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="5"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bevitel" xfId="4" builtinId="20"/>
     <cellStyle name="Ellenőrzőcella" xfId="5" builtinId="23"/>
+    <cellStyle name="Figyelmeztetés" xfId="6" builtinId="11"/>
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Rossz" xfId="2" builtinId="27"/>
@@ -3462,13 +3508,13 @@
         <v>TestArmor</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3495,13 +3541,13 @@
         <v>_5_11_Tactical_TacTec_plate_carrier</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3528,13 +3574,13 @@
         <v>_6B5_16_Zh_86_Uley_armored_rig</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3561,13 +3607,13 @@
         <v>_6B43_6A_Zabralo_Sh_body_armor</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3594,13 +3640,13 @@
         <v>BNTI_Kirasa_N_bodyarmor</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3627,13 +3673,13 @@
         <v>BNTI_Module_3M_body_armor</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3660,13 +3706,13 @@
         <v>Crye_Precision_AVS_plate_carrier</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3693,13 +3739,13 @@
         <v>IOTV_Gen4_body_armor_Assault_Kit</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3726,13 +3772,13 @@
         <v>IOTV_Gen4_body_armor_Full_Protection_Kit</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3759,13 +3805,13 @@
         <v>IOTV_Gen4_body_armor_High_Mobility_Kit</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3792,13 +3838,13 @@
         <v>PACA_Soft_Armor</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3825,13 +3871,13 @@
         <v>TestBackpack</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3858,13 +3904,13 @@
         <v>Camelback_Tri_Zip_assault_backpack</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3891,13 +3937,13 @@
         <v>Flyye_MBSS_backpack</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3924,13 +3970,13 @@
         <v>Gruppa_99_T30_backpack</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3957,13 +4003,13 @@
         <v>Sanitars_bag</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3990,13 +4036,13 @@
         <v>Scav_backpack</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4023,13 +4069,13 @@
         <v>Tactical_sling_bag</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4056,13 +4102,13 @@
         <v>Transformer_Bag</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4089,13 +4135,13 @@
         <v>Vertx_Ready_Pack_Backpack</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4122,13 +4168,13 @@
         <v>VKBO Army Bag</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4155,13 +4201,13 @@
         <v>WARTECH_Berkut_Backpack</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4188,13 +4234,13 @@
         <v>TestBoots</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4221,13 +4267,13 @@
         <v>Dollar_1</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4254,13 +4300,13 @@
         <v>TestFingers</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4287,13 +4333,13 @@
         <v>TestHeadset</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4320,13 +4366,13 @@
         <v>GSSh_01_active_headset</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4353,13 +4399,13 @@
         <v>MSA_Sordin_Supreme_headset</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4386,13 +4432,13 @@
         <v>Ops_Core_FAST_RAC_Headset</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4419,13 +4465,13 @@
         <v>OPSMEN_Earmor_M32_headset</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4452,13 +4498,13 @@
         <v>Peltor_ComTac_IV_Hybrid_headset</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4485,13 +4531,13 @@
         <v>Peltor_ComTac_V_headset</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4518,13 +4564,13 @@
         <v>Peltor_ComTac_VI_headset</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4551,13 +4597,13 @@
         <v>Safariland_Liberator_HP_2_0_Headset</v>
       </c>
       <c r="B69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4584,13 +4630,13 @@
         <v>Walkers_Razor_Digital_headset</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4617,13 +4663,13 @@
         <v>Walkers_XCEL_500BT_Digital_headset</v>
       </c>
       <c r="B71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4650,13 +4696,13 @@
         <v>TestHelmet</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4683,13 +4729,13 @@
         <v>_6B47_Ratnik_BSh_helmet_Olive_Drab</v>
       </c>
       <c r="B73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4716,13 +4762,13 @@
         <v>Galvion_Caiman_Hybrid_helmet_Grey</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4749,13 +4795,13 @@
         <v>Kolpak_1S_riot_helmet</v>
       </c>
       <c r="B75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4782,13 +4828,13 @@
         <v>LShZ_lightweight_helmet_Olive_Drab</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4815,13 +4861,13 @@
         <v>PSh_97_DJETA_riot_helmet</v>
       </c>
       <c r="B77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4848,13 +4894,13 @@
         <v>ShPM_Firefighter_helmet</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -4881,13 +4927,13 @@
         <v>SSh_68_steel_helmet_Olive_Drab</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4914,13 +4960,13 @@
         <v>Tac_Kek_FAST_MT_helmet_Replica</v>
       </c>
       <c r="B80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4947,13 +4993,13 @@
         <v>TSh_4M_L_soft_tank_crew_helmet</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4980,13 +5026,13 @@
         <v>UNTAR_helmet</v>
       </c>
       <c r="B82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5013,13 +5059,13 @@
         <v>TestMask</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5046,13 +5092,13 @@
         <v>Atomic_Defense_CQCM_ballistic_mask_Black</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5079,13 +5125,13 @@
         <v>Death_Knight_mask</v>
       </c>
       <c r="B85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5112,13 +5158,13 @@
         <v>Death_Shadow_lightweight_armored_mask</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5145,13 +5191,13 @@
         <v>Glorious_E_lightweight_armored_mask</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5178,13 +5224,13 @@
         <v>Shattered_lightweight_armored_mask</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5211,13 +5257,13 @@
         <v>Tagillas_welding_mask_Gorilla</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5244,13 +5290,13 @@
         <v>Tagillas_welding_mask_UBEY</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5277,13 +5323,13 @@
         <v>AI_2</v>
       </c>
       <c r="B91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5310,13 +5356,13 @@
         <v>TestMelee</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -5343,13 +5389,13 @@
         <v>APOK_Tactical_Wasteland_Gladius</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -5376,13 +5422,13 @@
         <v>Unitted_Cutlery_M48_Tactical_Kukri</v>
       </c>
       <c r="B94" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -5409,13 +5455,13 @@
         <v>PR_Taran_police_baton</v>
       </c>
       <c r="B95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -5442,13 +5488,13 @@
         <v>SOG_Voodoo_Hawk_tactical_tomahawk</v>
       </c>
       <c r="B96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -5475,13 +5521,13 @@
         <v>UVSR_Taiga_1_survival_machete</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -5508,13 +5554,13 @@
         <v>Cultist_knife</v>
       </c>
       <c r="B98" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5541,13 +5587,13 @@
         <v>Camper_axe</v>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5574,13 +5620,13 @@
         <v>SP_8_Survival_Machete</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -5607,13 +5653,13 @@
         <v>Miller_Bros_Blades_M_2_Tactical_Sword</v>
       </c>
       <c r="B101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5640,13 +5686,13 @@
         <v>ER_FULCRUM_BAYONET</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -5673,13 +5719,13 @@
         <v>TestPant</v>
       </c>
       <c r="B103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -5706,13 +5752,13 @@
         <v>USEC_AC_Ranger_Green</v>
       </c>
       <c r="B104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5739,13 +5785,13 @@
         <v>USEC_Base</v>
       </c>
       <c r="B105" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -5772,13 +5818,13 @@
         <v>USEC_Defender</v>
       </c>
       <c r="B106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5805,13 +5851,13 @@
         <v>USEC_Legionnaire</v>
       </c>
       <c r="B107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5838,13 +5884,13 @@
         <v>USEC_Outdoor_Tactical</v>
       </c>
       <c r="B108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5871,13 +5917,13 @@
         <v>USEC_Rangemaster</v>
       </c>
       <c r="B109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5904,13 +5950,13 @@
         <v>USEC_Ranger_Jeans</v>
       </c>
       <c r="B110" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5937,13 +5983,13 @@
         <v>USEC_Sage_Warrior</v>
       </c>
       <c r="B111" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5970,13 +6016,13 @@
         <v>USEC_Taclife_Terrain</v>
       </c>
       <c r="B112" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -6003,13 +6049,13 @@
         <v>USEC_TIER3</v>
       </c>
       <c r="B113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -6036,13 +6082,13 @@
         <v>TestSkin</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -6069,13 +6115,13 @@
         <v>Adik_Tracksuit</v>
       </c>
       <c r="B115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -6102,13 +6148,13 @@
         <v>USEC_AC_Ranger_Green</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -6135,13 +6181,13 @@
         <v>USEC_Adaptive_Combat</v>
       </c>
       <c r="B117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6168,13 +6214,13 @@
         <v>USEC_Aggressor_TAC</v>
       </c>
       <c r="B118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -6201,13 +6247,13 @@
         <v>USEC_Base_Upper</v>
       </c>
       <c r="B119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -6234,13 +6280,13 @@
         <v>USEC_BOSS_Delta</v>
       </c>
       <c r="B120" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6267,13 +6313,13 @@
         <v>USEC_Mission</v>
       </c>
       <c r="B121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -6300,13 +6346,13 @@
         <v>USEC_PCU_Ironsight</v>
       </c>
       <c r="B122" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6333,13 +6379,13 @@
         <v>USEC_Sandstone</v>
       </c>
       <c r="B123" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -6366,13 +6412,13 @@
         <v>USEC_Troubleshooter</v>
       </c>
       <c r="B124" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -6399,13 +6445,13 @@
         <v>TestVest</v>
       </c>
       <c r="B125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -6432,13 +6478,13 @@
         <v>_6B5_15_Zh_86_Uley_armored_rig</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -6465,13 +6511,13 @@
         <v>ANA_Tactical_M1_plate_carrier</v>
       </c>
       <c r="B127" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6498,13 +6544,13 @@
         <v>BlackRock_chest_rig</v>
       </c>
       <c r="B128" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6531,13 +6577,13 @@
         <v>Scav_Vest</v>
       </c>
       <c r="B129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -6564,13 +6610,13 @@
         <v>Security_vest</v>
       </c>
       <c r="B130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -6597,13 +6643,13 @@
         <v>SOE_Micro_Rig</v>
       </c>
       <c r="B131" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6630,13 +6676,13 @@
         <v>Stich_Profi_Plate_Carrier_V2</v>
       </c>
       <c r="B132" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -6663,13 +6709,13 @@
         <v>Tasmanian_Tiger_Plate_Carrier_MKIII</v>
       </c>
       <c r="B133" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -6696,13 +6742,13 @@
         <v>Umka_M33_SET1_hunter_vest</v>
       </c>
       <c r="B134" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -6729,13 +6775,13 @@
         <v>Velocity_Systems_MPPV_Multi_Purpose_Patrol_Vest</v>
       </c>
       <c r="B135" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -6762,13 +6808,13 @@
         <v>7.62x39FMJ</v>
       </c>
       <c r="B136" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -6795,13 +6841,13 @@
         <v>_12_70_8_5mm_Magnum_buckshot</v>
       </c>
       <c r="B137" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -6828,13 +6874,13 @@
         <v>_12_70_Grizzly_40_slug</v>
       </c>
       <c r="B138" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -6861,13 +6907,13 @@
         <v>_20_70_7_5mm_buckshot</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6894,13 +6940,13 @@
         <v>_23_75mm_Shrapnel_10_buckshot</v>
       </c>
       <c r="B140" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -6927,13 +6973,13 @@
         <v>_9x18mm_PM_PSO_gzh</v>
       </c>
       <c r="B141" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -6960,13 +7006,13 @@
         <v>_7_62x25mm_TT_AKBS</v>
       </c>
       <c r="B142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -6993,13 +7039,13 @@
         <v>_9x19mm_Green_Tracer</v>
       </c>
       <c r="B143" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -7026,13 +7072,13 @@
         <v>_45_ACP_Lasermatch_FMJ</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -7059,13 +7105,13 @@
         <v>_50_AE_Hawk_JSP</v>
       </c>
       <c r="B145" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7092,13 +7138,13 @@
         <v>_9x21mm_7U4</v>
       </c>
       <c r="B146" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7125,13 +7171,13 @@
         <v>_357_Magnum_JHP</v>
       </c>
       <c r="B147" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7158,13 +7204,13 @@
         <v>_5_7x28mm_SS197SR</v>
       </c>
       <c r="B148" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -7191,13 +7237,13 @@
         <v>_4_6x30mm_JSP_SX</v>
       </c>
       <c r="B149" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -7224,13 +7270,13 @@
         <v>_9x39mm_PAB_9_gs</v>
       </c>
       <c r="B150" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7257,13 +7303,13 @@
         <v>_366_TKM_EKO</v>
       </c>
       <c r="B151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -7290,13 +7336,13 @@
         <v>_5_45x39mm_FMJ</v>
       </c>
       <c r="B152" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7323,13 +7369,13 @@
         <v>_5_56x45mm_M856</v>
       </c>
       <c r="B153" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -7356,13 +7402,13 @@
         <v>_7_62x39mm_T_45M1_gzh</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -7389,13 +7435,13 @@
         <v>_300_Blackout_V_Max</v>
       </c>
       <c r="B155" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -7422,13 +7468,13 @@
         <v>_6_8x51mm_SIG_Hybrid</v>
       </c>
       <c r="B156" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -7455,13 +7501,13 @@
         <v>_7_62x51mm_M80</v>
       </c>
       <c r="B157" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -7488,13 +7534,13 @@
         <v>_7_62x54mm_R_SNB_gzh</v>
       </c>
       <c r="B158" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -7521,13 +7567,13 @@
         <v>_12_7x55mm_PS12</v>
       </c>
       <c r="B159" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -8456,10 +8502,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8489,25 +8535,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8518,11 +8564,11 @@
         <v>88</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A4</f>
+        <f>System!D11</f>
         <v>Dustcover</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8569,14 +8615,14 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A4</f>
+        <f>System!D11</f>
         <v>Dustcover</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -8698,10 +8744,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8731,25 +8777,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8757,14 +8803,14 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A6</f>
+        <f>System!D9</f>
         <v>VerticalGrip</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8815,7 +8861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -8886,10 +8932,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -8919,25 +8965,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8945,14 +8991,14 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A2</f>
+        <f>System!D13</f>
         <v>MuzzleBreak</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9080,10 +9126,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9113,25 +9159,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9139,14 +9185,14 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A5</f>
+        <f>System!D10</f>
         <v>Grip</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9164,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9196,14 +9242,14 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A5</f>
+        <f>System!D10</f>
         <v>Grip</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9221,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -9328,10 +9374,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9361,25 +9407,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9387,14 +9433,14 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="str">
-        <f>System!D3</f>
-        <v>Pistol</v>
+        <f>System!C12</f>
+        <v>HandGun</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9412,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9448,7 +9494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
@@ -9519,10 +9565,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9552,25 +9598,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9578,14 +9624,14 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A3</f>
+        <f>System!D12</f>
         <v>Magasine</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9603,7 +9649,7 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9644,14 +9690,14 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A3</f>
+        <f>System!D12</f>
         <v>Magasine</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9669,7 +9715,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -9704,14 +9750,14 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="str">
-        <f>System!A3</f>
+        <f>System!D12</f>
         <v>Magasine</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9834,10 +9880,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -9867,40 +9913,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9941,17 +9987,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D3" t="s">
         <v>127</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9992,17 +10038,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D4" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D4" t="s">
-        <v>133</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10043,17 +10089,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D5" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -10094,17 +10140,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D6" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -10145,17 +10191,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10196,17 +10242,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D8" t="s">
         <v>144</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -10247,17 +10293,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D9" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D9" t="s">
-        <v>147</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -10298,17 +10344,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C10" t="str">
-        <f>System!A13</f>
+        <f>System!B2</f>
         <v>Armor</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10349,17 +10395,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="C11" t="str">
-        <f>System!A13</f>
+        <f>System!B2</f>
         <v>Armor</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -10400,17 +10446,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="str">
+        <f>System!B2</f>
+        <v>Armor</v>
+      </c>
+      <c r="D12" t="s">
         <v>154</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A13</f>
-        <v>Armor</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -10531,10 +10577,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -10564,40 +10610,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B4</f>
+        <v>Boots</v>
+      </c>
+      <c r="D2" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A15</f>
-        <v>Boots</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -10717,10 +10763,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -10750,40 +10796,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B3</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A14</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -10822,22 +10868,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B3</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A14</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D3" t="s">
-        <v>171</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -10878,17 +10924,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="str">
+        <f>System!B3</f>
+        <v>Backpack</v>
+      </c>
+      <c r="D4" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A14</f>
-        <v>Backpack</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10929,17 +10975,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -10980,17 +11026,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -11031,17 +11077,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11082,17 +11128,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="C8" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -11133,17 +11179,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="C9" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -11184,17 +11230,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="C10" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -11235,17 +11281,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -11286,17 +11332,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="C12" t="str">
-        <f>System!A14</f>
+        <f>System!B3</f>
         <v>Backpack</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -11400,10 +11446,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -11433,40 +11479,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" t="str">
+        <f>System!B5</f>
+        <v>Cash</v>
+      </c>
+      <c r="D2" t="s">
         <v>208</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A16</f>
-        <v>Cash</v>
-      </c>
-      <c r="D2" t="s">
-        <v>209</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11512,10 +11558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11523,30 +11569,50 @@
     <col min="1" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="29" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -11561,28 +11627,43 @@
         <v>45</v>
       </c>
       <c r="E2" t="str">
-        <f>System!A5 &amp; ";" &amp; System!A26 &amp; ";" &amp; System!A7</f>
+        <f>System!D10 &amp; ";" &amp; System!D2 &amp; ";" &amp; System!D8</f>
         <v>Grip;HandGuard;WeaponBody</v>
       </c>
       <c r="F2" t="str">
         <f>WeaponBodies!A2</f>
         <v>AKS-74U_Body</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J2" t="s">
+        <v>622</v>
+      </c>
+      <c r="K2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12649,10 +12730,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -12682,40 +12763,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B6</f>
+        <v>Finger</v>
+      </c>
+      <c r="D2" t="s">
         <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A17</f>
-        <v>Finger</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12835,10 +12916,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -12868,40 +12949,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D2" t="s">
-        <v>217</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -12942,17 +13023,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -12993,17 +13074,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D4" t="s">
         <v>222</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13044,17 +13125,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D5" t="s">
         <v>225</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D5" t="s">
-        <v>226</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13095,17 +13176,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D6" t="s">
         <v>228</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D6" t="s">
-        <v>229</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13146,17 +13227,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D7" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D7" t="s">
-        <v>231</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13197,17 +13278,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D8" t="s">
         <v>234</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D8" t="s">
-        <v>235</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13248,17 +13329,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D9" t="s">
         <v>237</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D9" t="s">
-        <v>238</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13299,17 +13380,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -13350,17 +13431,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="str">
+        <f>System!B7</f>
+        <v>Headset</v>
+      </c>
+      <c r="D11" t="s">
         <v>243</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A18</f>
-        <v>Headset</v>
-      </c>
-      <c r="D11" t="s">
-        <v>244</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -13401,17 +13482,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="C12" t="str">
-        <f>System!A18</f>
+        <f>System!B7</f>
         <v>Headset</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -13531,10 +13612,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -13564,40 +13645,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13638,17 +13719,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D3" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D3" t="s">
-        <v>263</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -13689,17 +13770,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D4" t="s">
         <v>265</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D4" t="s">
-        <v>266</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -13740,17 +13821,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D5" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D5" t="s">
-        <v>269</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13791,17 +13872,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D6" t="s">
         <v>271</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D6" t="s">
-        <v>272</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -13842,17 +13923,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -13893,17 +13974,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D8" t="s">
         <v>277</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D8" t="s">
-        <v>278</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -13944,17 +14025,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D9" t="s">
         <v>280</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D9" t="s">
-        <v>281</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -13995,17 +14076,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D10" t="s">
         <v>283</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D10" t="s">
-        <v>284</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -14046,17 +14127,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D11" t="s">
         <v>286</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D11" t="s">
-        <v>287</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -14097,17 +14178,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="str">
+        <f>System!B8</f>
+        <v>Helmet</v>
+      </c>
+      <c r="D12" t="s">
         <v>289</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A19</f>
-        <v>Helmet</v>
-      </c>
-      <c r="D12" t="s">
-        <v>290</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -14227,10 +14308,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14260,40 +14341,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -14334,17 +14415,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D3" t="s">
         <v>306</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D3" t="s">
-        <v>307</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -14385,17 +14466,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D4" t="s">
         <v>309</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D4" t="s">
-        <v>310</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -14436,17 +14517,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D5" t="s">
         <v>312</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D5" t="s">
-        <v>313</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -14487,17 +14568,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D6" t="s">
         <v>315</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D6" t="s">
-        <v>316</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -14538,17 +14619,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D7" t="s">
         <v>318</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D7" t="s">
-        <v>319</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -14589,17 +14670,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" t="str">
+        <f>System!B9</f>
+        <v>Mask</v>
+      </c>
+      <c r="D8" t="s">
         <v>320</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A20</f>
-        <v>Mask</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -14640,17 +14721,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" t="str">
-        <f>System!A20</f>
+        <f>System!B9</f>
         <v>Mask</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -14770,10 +14851,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14803,40 +14884,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" t="str">
+        <f>System!A2</f>
+        <v>Med</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A21</f>
-        <v>Med</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -14882,7 +14963,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14963,10 +15044,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -14996,40 +15077,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15070,17 +15151,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D3" t="s">
         <v>341</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D3" t="s">
-        <v>342</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15121,17 +15202,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D4" t="s">
         <v>344</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D4" t="s">
-        <v>345</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -15172,17 +15253,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D5" t="s">
         <v>347</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15223,17 +15304,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D6" t="s">
         <v>350</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D6" t="s">
-        <v>351</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -15274,17 +15355,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D7" t="s">
         <v>353</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D7" t="s">
-        <v>354</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15325,17 +15406,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D8" t="s">
         <v>356</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D8" t="s">
-        <v>357</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -15376,17 +15457,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D9" t="s">
         <v>359</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D9" t="s">
-        <v>360</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -15427,17 +15508,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D10" t="s">
         <v>362</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D10" t="s">
-        <v>363</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -15478,17 +15559,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D11" t="s">
         <v>365</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D11" t="s">
-        <v>366</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -15529,17 +15610,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="str">
+        <f>System!C11</f>
+        <v>Melee</v>
+      </c>
+      <c r="D12" t="s">
         <v>368</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!B2</f>
-        <v>Melee</v>
-      </c>
-      <c r="D12" t="s">
-        <v>369</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -15659,10 +15740,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -15692,40 +15773,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="str">
+        <f>System!B10</f>
+        <v>Pant</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>382</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>383</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15766,17 +15847,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!B10</f>
+        <v>Pant</v>
+      </c>
+      <c r="D3" t="s">
         <v>385</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A22</f>
-        <v>Pant</v>
-      </c>
-      <c r="D3" t="s">
-        <v>386</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15817,17 +15898,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>388</v>
-      </c>
       <c r="C4" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -15868,17 +15949,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="C5" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15919,17 +16000,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="C6" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -15970,17 +16051,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="C7" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -16021,17 +16102,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>396</v>
-      </c>
       <c r="C8" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -16072,17 +16153,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>398</v>
-      </c>
       <c r="C9" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -16123,17 +16204,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>400</v>
-      </c>
       <c r="C10" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16174,17 +16255,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>402</v>
-      </c>
       <c r="C11" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16225,17 +16306,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="C12" t="str">
-        <f>System!A22</f>
+        <f>System!B10</f>
         <v>Pant</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -16275,7 +16356,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16356,10 +16437,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -16389,40 +16470,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>System!B11</f>
+        <v>Skin</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="B2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f>System!A23</f>
-        <v>Skin</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -16463,17 +16544,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>421</v>
-      </c>
       <c r="C3" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -16514,17 +16595,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -16565,17 +16646,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>424</v>
-      </c>
       <c r="C5" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -16616,17 +16697,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>426</v>
-      </c>
       <c r="C6" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -16667,17 +16748,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="C7" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -16718,17 +16799,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>430</v>
-      </c>
       <c r="C8" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -16769,17 +16850,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>432</v>
-      </c>
       <c r="C9" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -16820,17 +16901,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>434</v>
-      </c>
       <c r="C10" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16871,17 +16952,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>436</v>
-      </c>
       <c r="C11" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -16922,17 +17003,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="C12" t="str">
-        <f>System!A23</f>
+        <f>System!B11</f>
         <v>Skin</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17052,10 +17133,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -17085,40 +17166,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17157,22 +17238,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>454</v>
-      </c>
       <c r="C3" t="str">
-        <f>System!A24</f>
+        <f>System!B12</f>
         <v>Vest</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17213,17 +17294,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D4" t="s">
         <v>456</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D4" t="s">
-        <v>457</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17264,17 +17345,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D5" t="s">
         <v>459</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D5" t="s">
-        <v>460</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -17315,17 +17396,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D6" t="s">
         <v>462</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D6" t="s">
-        <v>463</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -17366,17 +17447,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D7" t="s">
         <v>465</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D7" t="s">
-        <v>466</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -17417,17 +17498,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D8" t="s">
         <v>468</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D8" t="s">
-        <v>469</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -17468,17 +17549,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D9" t="s">
         <v>471</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D9" t="s">
-        <v>472</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -17519,17 +17600,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D10" t="s">
         <v>474</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D10" t="s">
-        <v>475</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -17570,17 +17651,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D11" t="s">
         <v>477</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D11" t="s">
-        <v>478</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -17621,17 +17702,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" t="str">
+        <f>System!B12</f>
+        <v>Vest</v>
+      </c>
+      <c r="D12" t="s">
         <v>480</v>
-      </c>
-      <c r="C12" t="str">
-        <f>System!A24</f>
-        <v>Vest</v>
-      </c>
-      <c r="D12" t="s">
-        <v>481</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -17671,7 +17752,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17753,10 +17834,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -17786,40 +17867,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="B2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -17878,17 +17959,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D3" t="s">
         <v>497</v>
-      </c>
-      <c r="C3" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D3" t="s">
-        <v>498</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -17929,17 +18010,17 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D4" t="s">
         <v>500</v>
-      </c>
-      <c r="C4" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D4" t="s">
-        <v>501</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -17980,17 +18061,17 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D5" t="s">
         <v>503</v>
-      </c>
-      <c r="C5" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D5" t="s">
-        <v>504</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -18031,17 +18112,17 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D6" t="s">
         <v>506</v>
-      </c>
-      <c r="C6" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D6" t="s">
-        <v>507</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -18082,17 +18163,17 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D7" t="s">
         <v>509</v>
-      </c>
-      <c r="C7" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D7" t="s">
-        <v>510</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -18133,17 +18214,17 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D8" t="s">
         <v>512</v>
-      </c>
-      <c r="C8" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D8" t="s">
-        <v>513</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -18184,17 +18265,17 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D9" t="s">
         <v>515</v>
-      </c>
-      <c r="C9" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D9" t="s">
-        <v>516</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -18235,17 +18316,17 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D10" t="s">
         <v>518</v>
-      </c>
-      <c r="C10" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D10" t="s">
-        <v>519</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -18286,17 +18367,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D11" t="s">
         <v>521</v>
-      </c>
-      <c r="C11" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D11" t="s">
-        <v>522</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -18337,17 +18418,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>525</v>
-      </c>
       <c r="C12" t="str">
-        <f>System!A25</f>
+        <f>System!A3</f>
         <v>Ammunition</v>
       </c>
       <c r="D12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -18388,17 +18469,17 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>528</v>
-      </c>
       <c r="C13" t="str">
-        <f>System!A25</f>
+        <f>System!A3</f>
         <v>Ammunition</v>
       </c>
       <c r="D13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -18439,17 +18520,17 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>531</v>
-      </c>
       <c r="C14" t="str">
-        <f>System!A25</f>
+        <f>System!A3</f>
         <v>Ammunition</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -18490,17 +18571,17 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D15" t="s">
         <v>533</v>
-      </c>
-      <c r="C15" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D15" t="s">
-        <v>534</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -18541,17 +18622,17 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D16" t="s">
         <v>536</v>
-      </c>
-      <c r="C16" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D16" t="s">
-        <v>537</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -18592,17 +18673,17 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D17" t="s">
         <v>539</v>
-      </c>
-      <c r="C17" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D17" t="s">
-        <v>540</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -18643,17 +18724,17 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D18" t="s">
         <v>542</v>
-      </c>
-      <c r="C18" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D18" t="s">
-        <v>543</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -18712,17 +18793,17 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D19" t="s">
         <v>545</v>
-      </c>
-      <c r="C19" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D19" t="s">
-        <v>546</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -18763,17 +18844,17 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>546</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D20" t="s">
         <v>548</v>
-      </c>
-      <c r="C20" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D20" t="s">
-        <v>549</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -18814,17 +18895,17 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D21" t="s">
         <v>551</v>
-      </c>
-      <c r="C21" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D21" t="s">
-        <v>552</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -18865,17 +18946,17 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>552</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D22" t="s">
         <v>554</v>
-      </c>
-      <c r="C22" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D22" t="s">
-        <v>555</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -18916,17 +18997,17 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>555</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D23" t="s">
         <v>557</v>
-      </c>
-      <c r="C23" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D23" t="s">
-        <v>558</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -18967,17 +19048,17 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D24" t="s">
         <v>560</v>
-      </c>
-      <c r="C24" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D24" t="s">
-        <v>561</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -19018,17 +19099,17 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" t="str">
+        <f>System!A3</f>
+        <v>Ammunition</v>
+      </c>
+      <c r="D25" t="s">
         <v>563</v>
-      </c>
-      <c r="C25" t="str">
-        <f>System!A25</f>
-        <v>Ammunition</v>
-      </c>
-      <c r="D25" t="s">
-        <v>564</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -19068,7 +19149,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -19076,10 +19157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19092,184 +19173,158 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>600</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>211</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>215</v>
-      </c>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>302</v>
-      </c>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>615</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19280,7 +19335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -19352,10 +19407,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19385,25 +19440,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19411,14 +19466,14 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A7</f>
+        <f>System!D8</f>
         <v>WeaponBody</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -19489,14 +19544,14 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A7</f>
+        <f>System!D8</f>
         <v>WeaponBody</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -19618,10 +19673,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19651,40 +19706,40 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" t="s">
         <v>589</v>
       </c>
-      <c r="B2" t="s">
-        <v>590</v>
-      </c>
       <c r="C2" t="str">
-        <f>System!A26</f>
+        <f>System!D2</f>
         <v>HandGuard</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -19728,17 +19783,17 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" t="s">
         <v>591</v>
       </c>
-      <c r="B3" t="s">
-        <v>592</v>
-      </c>
       <c r="C3" t="str">
-        <f>System!A26</f>
+        <f>System!D2</f>
         <v>HandGuard</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -19860,10 +19915,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -19893,25 +19948,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -19919,14 +19974,14 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A8</f>
+        <f>System!D7</f>
         <v>Sight</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -19976,14 +20031,14 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="str">
-        <f>System!A8</f>
+        <f>System!D7</f>
         <v>Sight</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -20027,14 +20082,14 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="str">
-        <f>System!A8</f>
+        <f>System!D7</f>
         <v>Sight</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -20082,7 +20137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH1" sqref="AH1:AI1"/>
     </sheetView>
   </sheetViews>
@@ -20153,10 +20208,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -20186,25 +20241,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -20212,14 +20267,14 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A12</f>
+        <f>System!D3</f>
         <v>Laser/Light</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -20338,10 +20393,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -20371,25 +20426,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -20397,14 +20452,14 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A11</f>
+        <f>System!D4</f>
         <v>Slide</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -20523,10 +20578,10 @@
         <v>76</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>77</v>
@@ -20556,25 +20611,25 @@
         <v>87</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AB1" s="10" t="s">
         <v>86</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="AD1" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -20582,14 +20637,14 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="str">
-        <f>System!A10</f>
+        <f>System!D5</f>
         <v>Barrel</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="627">
   <si>
     <t>PartName</t>
   </si>
@@ -1922,6 +1922,12 @@
   </si>
   <si>
     <t>Sounds/WeaponTEST/TESTReload</t>
+  </si>
+  <si>
+    <t>Glock-19X</t>
+  </si>
+  <si>
+    <t>an iconic variant of the glock series</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2407,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3124,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23" t="str">
         <f>Magasines!A4</f>
@@ -3145,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="str">
         <f>Barrels!A2</f>
@@ -3172,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="str">
         <f>Slides!A2</f>
@@ -3300,16 +3306,16 @@
         <v>51</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11560,8 +11566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11650,7 +11656,27 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" t="str">
+        <f>System!D5 &amp; ";" &amp; System!D4 &amp; ";" &amp; System!D8</f>
+        <v>Barrel;Slide;WeaponBody</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19335,8 +19361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19591,6 +19617,30 @@
       </c>
       <c r="S3">
         <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>600</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>150</v>
+      </c>
+      <c r="Y3">
+        <v>75</v>
+      </c>
+      <c r="AB3">
+        <v>9</v>
+      </c>
+      <c r="AC3">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -20322,8 +20372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20507,8 +20557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="632">
   <si>
     <t>PartName</t>
   </si>
@@ -1928,6 +1928,21 @@
   </si>
   <si>
     <t>an iconic variant of the glock series</t>
+  </si>
+  <si>
+    <t>Textures/EffectTextures/9mmBullet</t>
+  </si>
+  <si>
+    <t>Sounds/Glock/GlockChamber</t>
+  </si>
+  <si>
+    <t>Sounds/Glock/GlockReload</t>
+  </si>
+  <si>
+    <t>Sounds/Glock/GlockShoot</t>
+  </si>
+  <si>
+    <t>Sounds/Glock/GlockUnload</t>
   </si>
 </sst>
 </file>
@@ -11566,8 +11581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11675,6 +11690,21 @@
       </c>
       <c r="F3" t="s">
         <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H3" t="s">
+        <v>629</v>
+      </c>
+      <c r="I3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J3" t="s">
+        <v>628</v>
+      </c>
+      <c r="K3" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17787,8 +17817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18339,6 +18369,24 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>9</v>
+      </c>
+      <c r="AC9">
+        <v>19</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG9">
+        <v>450</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -19361,7 +19409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Items/AdvancedItemData.xlsx
+++ b/Assets/Resources/Items/AdvancedItemData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="PartDatas" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="635">
   <si>
     <t>PartName</t>
   </si>
@@ -1943,6 +1943,15 @@
   </si>
   <si>
     <t>Sounds/Glock/GlockUnload</t>
+  </si>
+  <si>
+    <t>FirstHand</t>
+  </si>
+  <si>
+    <t>SecondHand</t>
+  </si>
+  <si>
+    <t>Firsthand</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2185,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -2198,6 +2207,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bevitel" xfId="4" builtinId="20"/>
@@ -2419,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J986"/>
+  <dimension ref="A1:J990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2894,148 +2904,132 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="21">
+        <v>64</v>
+      </c>
+      <c r="H16" s="21">
+        <v>24</v>
+      </c>
+      <c r="I16" s="21">
+        <v>110</v>
+      </c>
+      <c r="J16" s="21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <f>Grips!A3</f>
         <v>AKS-74U_bakelite_pistol_grip</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="str">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <f xml:space="preserve"> WeaponBodies!A2</f>
         <v>AKS-74U_Body</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
         <v>14</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <v>9</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <v>116</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="21">
+        <v>66</v>
+      </c>
+      <c r="H18" s="21">
+        <v>13</v>
+      </c>
+      <c r="I18" s="21">
+        <v>108</v>
+      </c>
+      <c r="J18" s="21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
         <f>VerticalGrips!A2</f>
         <v>KAC_vertical_foregrip</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="str">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <f>HandGuards!A2</f>
         <v>AKS-74U_Zenit_B-11_handguard</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G19" s="1">
         <v>18</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H19" s="1">
         <v>26</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I19" s="1">
         <v>89</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J19" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>MuzzleBreaks!A2</f>
         <v>AK-105_5.45x39_muzzle_brake-compensator</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f xml:space="preserve"> WeaponBodies!A2</f>
-        <v>AKS-74U_Body</v>
-      </c>
-      <c r="G18" s="1">
-        <v>138</v>
-      </c>
-      <c r="H18" s="1">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1">
-        <v>138</v>
-      </c>
-      <c r="J18" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>DustCovers!A2</f>
-        <v>AKS-74U_dust_cover</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f xml:space="preserve"> WeaponBodies!A2</f>
-        <v>AKS-74U_Body</v>
-      </c>
-      <c r="G19" s="1">
-        <v>102</v>
-      </c>
-      <c r="H19" s="1">
-        <v>97</v>
-      </c>
-      <c r="I19" s="1">
-        <v>436</v>
-      </c>
-      <c r="J19" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>DustCovers!A3</f>
-        <v>AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -3051,165 +3045,179 @@
         <v>AKS-74U_Body</v>
       </c>
       <c r="G20" s="1">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H20" s="1">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="J20" s="1">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>DustCovers!A2</f>
+        <v>AKS-74U_dust_cover</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f xml:space="preserve"> WeaponBodies!A2</f>
+        <v>AKS-74U_Body</v>
+      </c>
+      <c r="G21" s="1">
+        <v>102</v>
+      </c>
+      <c r="H21" s="1">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1">
+        <v>436</v>
+      </c>
+      <c r="J21" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>DustCovers!A3</f>
+        <v>AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f xml:space="preserve"> WeaponBodies!A2</f>
+        <v>AKS-74U_Body</v>
+      </c>
+      <c r="G22" s="1">
+        <v>105</v>
+      </c>
+      <c r="H22" s="1">
+        <v>97</v>
+      </c>
+      <c r="I22" s="1">
+        <v>443</v>
+      </c>
+      <c r="J22" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
         <f>Sights!A2</f>
         <v>Walther_MRS_reflex_sight</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G23" s="1">
         <v>180</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H23" s="1">
         <v>32</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I23" s="1">
         <v>288</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J23" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
         <f>Sights!A2</f>
         <v>Walther_MRS_reflex_sight</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
         <f xml:space="preserve"> DustCovers!A3</f>
         <v>AKS-74U_Legal_Arsenal_Pilgrim_railed_dust_cover</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G24" s="1">
         <v>6</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H24" s="1">
         <v>95</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I24" s="1">
         <v>115</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J24" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>WeaponBodies!A3</f>
         <v>Glock_19X_9x19_pistol_body</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>-1</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F25" t="str">
         <f>Magasines!A4</f>
         <v>Glock_9x19_19-round_magasine_(Coyote)</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <v>358</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>304</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <v>460</v>
       </c>
-      <c r="J23">
+      <c r="J25">
         <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>-1</v>
-      </c>
-      <c r="F24" t="str">
-        <f>Barrels!A2</f>
-        <v>Glock_19X_9x19_barrel</v>
-      </c>
-      <c r="G24">
-        <v>200</v>
-      </c>
-      <c r="H24">
-        <v>31</v>
-      </c>
-      <c r="I24">
-        <v>267</v>
-      </c>
-      <c r="J24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="str">
-        <f>Slides!A2</f>
-        <v>Glock_19X_pistol_slide</v>
-      </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25">
-        <v>36</v>
-      </c>
-      <c r="I25">
-        <v>452</v>
-      </c>
-      <c r="J25">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,94 +3225,80 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26" t="str">
+        <f>Barrels!A2</f>
+        <v>Glock_19X_9x19_barrel</v>
+      </c>
+      <c r="G26">
+        <v>200</v>
+      </c>
+      <c r="H26">
+        <v>31</v>
+      </c>
+      <c r="I26">
+        <v>267</v>
+      </c>
+      <c r="J26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f>Slides!A2</f>
+        <v>Glock_19X_pistol_slide</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>36</v>
+      </c>
+      <c r="I27">
+        <v>452</v>
+      </c>
+      <c r="J27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="str">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
         <f>Lasers_Lights!A2</f>
         <v>Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>17</v>
       </c>
-      <c r="H26">
+      <c r="H28">
         <v>61</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>95</v>
       </c>
-      <c r="J26">
+      <c r="J28">
         <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>Magasines!A4</f>
-        <v>Glock_9x19_19-round_magasine_(Coyote)</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="str">
-        <f>WeaponBodies!A3</f>
-        <v>Glock_19X_9x19_pistol_body</v>
-      </c>
-      <c r="G27">
-        <v>60</v>
-      </c>
-      <c r="H27">
-        <v>183</v>
-      </c>
-      <c r="I27">
-        <v>121</v>
-      </c>
-      <c r="J27">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>Barrels!A2</f>
-        <v>Glock_19X_9x19_barrel</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="str">
-        <f>WeaponBodies!A3</f>
-        <v>Glock_19X_9x19_pistol_body</v>
-      </c>
-      <c r="G28">
-        <v>202</v>
-      </c>
-      <c r="H28">
-        <v>68</v>
-      </c>
-      <c r="I28">
-        <v>267</v>
-      </c>
-      <c r="J28">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3312,7 +3306,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>632</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3321,4317 +3315,4433 @@
         <v>51</v>
       </c>
       <c r="G29">
+        <v>340</v>
+      </c>
+      <c r="H29">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+      <c r="J29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30">
+        <v>340</v>
+      </c>
+      <c r="H30">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>400</v>
+      </c>
+      <c r="J30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>Magasines!A4</f>
+        <v>Glock_9x19_19-round_magasine_(Coyote)</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f>WeaponBodies!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>183</v>
+      </c>
+      <c r="I31">
+        <v>121</v>
+      </c>
+      <c r="J31">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>Barrels!A2</f>
+        <v>Glock_19X_9x19_barrel</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f>WeaponBodies!A3</f>
+        <v>Glock_19X_9x19_pistol_body</v>
+      </c>
+      <c r="G32">
+        <v>202</v>
+      </c>
+      <c r="H32">
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <v>267</v>
+      </c>
+      <c r="J32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33">
         <v>10</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>44</v>
       </c>
-      <c r="I29">
+      <c r="I33">
         <v>10</v>
       </c>
-      <c r="J29">
+      <c r="J33">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>Slides!A2</f>
         <v>Glock_19X_pistol_slide</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="str">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
         <f>WeaponBodies!A3</f>
         <v>Glock_19X_9x19_pistol_body</v>
       </c>
-      <c r="G30">
+      <c r="G34">
         <v>14</v>
       </c>
-      <c r="H30">
+      <c r="H34">
         <v>78</v>
       </c>
-      <c r="I30">
+      <c r="I34">
         <v>462</v>
       </c>
-      <c r="J30">
+      <c r="J34">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="str">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
         <f>Sights!A3</f>
         <v>Glock_19X_front_sight</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <v>25</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>22</v>
       </c>
-      <c r="I31">
+      <c r="I35">
         <v>55</v>
       </c>
-      <c r="J31">
+      <c r="J35">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="str">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
         <f>Sights!A4</f>
         <v>Glock_19X_rear_sight</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <v>425</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <v>25</v>
       </c>
-      <c r="I32">
+      <c r="I36">
         <v>443</v>
       </c>
-      <c r="J32">
+      <c r="J36">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
         <f>Sights!A3</f>
         <v>Glock_19X_front_sight</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
         <f>Slides!A2</f>
         <v>Glock_19X_pistol_slide</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <v>5</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="I37">
         <v>36</v>
       </c>
-      <c r="J33">
+      <c r="J37">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
         <f>Sights!A4</f>
         <v>Glock_19X_rear_sight</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>48</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="str">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
         <f>Slides!A2</f>
         <v>Glock_19X_pistol_slide</v>
       </c>
-      <c r="G34">
+      <c r="G38">
         <v>5</v>
       </c>
-      <c r="H34">
+      <c r="H38">
         <v>21</v>
       </c>
-      <c r="I34">
+      <c r="I38">
         <v>23</v>
       </c>
-      <c r="J34">
+      <c r="J38">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
         <f>Lasers_Lights!A2</f>
         <v>Olight_Baldr_Pro_tactical_flashlight_with_laser_(tan)</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="str">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
         <f>WeaponBodies!A3</f>
         <v>Glock_19X_9x19_pistol_body</v>
       </c>
-      <c r="G35">
+      <c r="G39">
         <v>83</v>
       </c>
-      <c r="H35">
+      <c r="H39">
         <v>8</v>
       </c>
-      <c r="I35">
+      <c r="I39">
         <v>159</v>
       </c>
-      <c r="J35">
+      <c r="J39">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>Armors!A2</f>
         <v>TestArmor</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
         <f>Armors!A3</f>
         <v>_5_11_Tactical_TacTec_plate_carrier</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>Armors!A4</f>
         <v>_6B5_16_Zh_86_Uley_armored_rig</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
         <f>Armors!A5</f>
         <v>_6B43_6A_Zabralo_Sh_body_armor</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
         <f>Armors!A6</f>
         <v>BNTI_Kirasa_N_bodyarmor</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
         <f>Armors!A7</f>
         <v>BNTI_Module_3M_body_armor</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <f>Armors!A8</f>
         <v>Crye_Precision_AVS_plate_carrier</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>Armors!A9</f>
         <v>IOTV_Gen4_body_armor_Assault_Kit</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>Armors!A10</f>
         <v>IOTV_Gen4_body_armor_Full_Protection_Kit</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>162</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <f>Armors!A11</f>
         <v>IOTV_Gen4_body_armor_High_Mobility_Kit</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>Armors!A12</f>
         <v>PACA_Soft_Armor</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>Backpacks!A2</f>
         <v>TestBackpack</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>Backpacks!A3</f>
         <v>Camelback_Tri_Zip_assault_backpack</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>Backpacks!A4</f>
         <v>Flyye_MBSS_backpack</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>Backpacks!A5</f>
         <v>Gruppa_99_T30_backpack</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
         <f>Backpacks!A6</f>
         <v>Sanitars_bag</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <f>Backpacks!A7</f>
         <v>Scav_backpack</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
         <f>Backpacks!A8</f>
         <v>Tactical_sling_bag</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
         <f>Backpacks!A9</f>
         <v>Transformer_Bag</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
         <f>Backpacks!A10</f>
         <v>Vertx_Ready_Pack_Backpack</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
         <f>Backpacks!A11</f>
         <v>VKBO Army Bag</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <f>Backpacks!A12</f>
         <v>WARTECH_Berkut_Backpack</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <f>Boots!A2</f>
         <v>TestBoots</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
         <f>Cash!A2</f>
         <v>Dollar_1</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <f>Fingers!A2</f>
         <v>TestFingers</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
         <f>Headsets!A2</f>
         <v>TestHeadset</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>246</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
         <f>Headsets!A3</f>
         <v>GSSh_01_active_headset</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
         <f>Headsets!A4</f>
         <v>MSA_Sordin_Supreme_headset</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8" t="s">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
         <f>Headsets!A5</f>
         <v>Ops_Core_FAST_RAC_Headset</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
         <f>Headsets!A6</f>
         <v>OPSMEN_Earmor_M32_headset</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
         <f>Headsets!A7</f>
         <v>Peltor_ComTac_IV_Hybrid_headset</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8" t="s">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
         <f>Headsets!A8</f>
         <v>Peltor_ComTac_V_headset</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>252</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8" t="s">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
         <f>Headsets!A9</f>
         <v>Peltor_ComTac_VI_headset</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
         <f>Headsets!A10</f>
         <v>Safariland_Liberator_HP_2_0_Headset</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
         <f>Headsets!A11</f>
         <v>Walkers_Razor_Digital_headset</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8" t="s">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
         <f>Headsets!A12</f>
         <v>Walkers_XCEL_500BT_Digital_headset</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>256</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
         <f>Helmets!A2</f>
         <v>TestHelmet</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>290</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
         <f>Helmets!A3</f>
         <v>_6B47_Ratnik_BSh_helmet_Olive_Drab</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>291</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
         <f>Helmets!A4</f>
         <v>Galvion_Caiman_Hybrid_helmet_Grey</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
         <f>Helmets!A5</f>
         <v>Kolpak_1S_riot_helmet</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>293</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
         <f>Helmets!A6</f>
         <v>LShZ_lightweight_helmet_Olive_Drab</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8" t="s">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
         <f>Helmets!A7</f>
         <v>PSh_97_DJETA_riot_helmet</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" t="s">
         <v>295</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
         <f>Helmets!A8</f>
         <v>ShPM_Firefighter_helmet</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" t="s">
         <v>296</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
         <f>Helmets!A9</f>
         <v>SSh_68_steel_helmet_Olive_Drab</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B83" t="s">
         <v>297</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8" t="s">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
         <f>Helmets!A10</f>
         <v>Tac_Kek_FAST_MT_helmet_Replica</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" t="s">
         <v>298</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D84" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8" t="s">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
         <f>Helmets!A11</f>
         <v>TSh_4M_L_soft_tank_crew_helmet</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" t="s">
         <v>299</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
         <f>Helmets!A12</f>
         <v>UNTAR_helmet</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B86" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D86" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8" t="s">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
         <f>Masks!A2</f>
         <v>TestMask</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <f>Masks!A3</f>
         <v>Atomic_Defense_CQCM_ballistic_mask_Black</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B88" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8" t="s">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f>Masks!A4</f>
         <v>Death_Knight_mask</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8" t="s">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <f>Masks!A5</f>
         <v>Death_Shadow_lightweight_armored_mask</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8" t="s">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <f>Masks!A6</f>
         <v>Glorious_E_lightweight_armored_mask</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B91" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8" t="s">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
         <f>Masks!A7</f>
         <v>Shattered_lightweight_armored_mask</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8" t="s">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
         <f>Masks!A8</f>
         <v>Tagillas_welding_mask_Gorilla</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B93" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8" t="s">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
         <f>Masks!A9</f>
         <v>Tagillas_welding_mask_UBEY</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8" t="s">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
         <f>Meds!A2</f>
         <v>AI_2</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8" t="s">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
         <f>Melees!A2</f>
         <v>TestMelee</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" t="s">
         <v>369</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" s="8" t="s">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <f>Melees!A3</f>
         <v>APOK_Tactical_Wasteland_Gladius</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" s="8" t="s">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f>Melees!A4</f>
         <v>Unitted_Cutlery_M48_Tactical_Kukri</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B98" t="s">
         <v>371</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8" t="s">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <f>Melees!A5</f>
         <v>PR_Taran_police_baton</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" t="s">
         <v>372</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D99" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" s="8" t="s">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <f>Melees!A6</f>
         <v>SOG_Voodoo_Hawk_tactical_tomahawk</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" t="s">
         <v>373</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8" t="s">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <f>Melees!A7</f>
         <v>UVSR_Taiga_1_survival_machete</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" t="s">
         <v>374</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8" t="s">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f>Melees!A8</f>
         <v>Cultist_knife</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" s="8" t="s">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f>Melees!A9</f>
         <v>Camper_axe</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>376</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" s="8" t="s">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f>Melees!A10</f>
         <v>SP_8_Survival_Machete</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" t="s">
         <v>377</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" s="8" t="s">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f>Melees!A11</f>
         <v>Miller_Bros_Blades_M_2_Tactical_Sword</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" t="s">
         <v>378</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" s="8" t="s">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f>Melees!A12</f>
         <v>ER_FULCRUM_BAYONET</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>379</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" s="8" t="s">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f>Pants!A2</f>
         <v>TestPant</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" t="s">
         <v>404</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" s="8" t="s">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f>Pants!A3</f>
         <v>USEC_AC_Ranger_Green</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B108" t="s">
         <v>405</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" s="8" t="s">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f>Pants!A4</f>
         <v>USEC_Base</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B109" t="s">
         <v>406</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" s="8" t="s">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
         <f>Pants!A5</f>
         <v>USEC_Defender</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B110" t="s">
         <v>407</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8" t="s">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
         <f>Pants!A6</f>
         <v>USEC_Legionnaire</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B111" t="s">
         <v>408</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" s="8" t="s">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
         <f>Pants!A7</f>
         <v>USEC_Outdoor_Tactical</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B112" t="s">
         <v>409</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" s="8" t="s">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <f>Pants!A8</f>
         <v>USEC_Rangemaster</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B113" t="s">
         <v>410</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" s="8" t="s">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <f>Pants!A9</f>
         <v>USEC_Ranger_Jeans</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B114" t="s">
         <v>411</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" s="8" t="s">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <f>Pants!A10</f>
         <v>USEC_Sage_Warrior</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B115" t="s">
         <v>412</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C115" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" s="8" t="s">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f>Pants!A11</f>
         <v>USEC_Taclife_Terrain</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B116" t="s">
         <v>413</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" s="8" t="s">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
         <f>Pants!A12</f>
         <v>USEC_TIER3</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B117" t="s">
         <v>414</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" s="8" t="s">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
         <f>Skins!A2</f>
         <v>TestSkin</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B118" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114" s="8" t="s">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
         <f>Skins!A3</f>
         <v>Adik_Tracksuit</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B119" t="s">
         <v>439</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C119" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" s="8" t="s">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
         <f>Skins!A4</f>
         <v>USEC_AC_Ranger_Green</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B120" t="s">
         <v>440</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C120" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8" t="s">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
         <f>Skins!A5</f>
         <v>USEC_Adaptive_Combat</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B121" t="s">
         <v>441</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117" s="8" t="s">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
         <f>Skins!A6</f>
         <v>USEC_Aggressor_TAC</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B122" t="s">
         <v>442</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8" t="s">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
         <f>Skins!A7</f>
         <v>USEC_Base_Upper</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B123" t="s">
         <v>443</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8" t="s">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
         <f>Skins!A8</f>
         <v>USEC_BOSS_Delta</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B124" t="s">
         <v>444</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8" t="s">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
         <f>Skins!A9</f>
         <v>USEC_Mission</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B125" t="s">
         <v>445</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
         <f>Skins!A10</f>
         <v>USEC_PCU_Ironsight</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B126" t="s">
         <v>446</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C126" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D126" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8" t="s">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
         <f>Skins!A11</f>
         <v>USEC_Sandstone</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B127" t="s">
         <v>447</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D127" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8" t="s">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
         <f>Skins!A12</f>
         <v>USEC_Troubleshooter</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B128" t="s">
         <v>448</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8" t="s">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
         <f>Vests!A2</f>
         <v>TestVest</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B129" t="s">
         <v>482</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125" s="8" t="s">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
         <f>Vests!A3</f>
         <v>_6B5_15_Zh_86_Uley_armored_rig</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D130" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8" t="s">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
         <f>Vests!A4</f>
         <v>ANA_Tactical_M1_plate_carrier</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B131" t="s">
         <v>484</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8" t="s">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
         <f>Vests!A5</f>
         <v>BlackRock_chest_rig</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B132" t="s">
         <v>485</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D132" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128" s="8" t="s">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
         <f>Vests!A6</f>
         <v>Scav_Vest</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B133" t="s">
         <v>486</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D133" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8" t="s">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
         <f>Vests!A7</f>
         <v>Security_vest</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B134" t="s">
         <v>487</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130" s="8" t="s">
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
         <f>Vests!A8</f>
         <v>SOE_Micro_Rig</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B135" t="s">
         <v>488</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C135" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131" s="8" t="s">
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
         <f>Vests!A9</f>
         <v>Stich_Profi_Plate_Carrier_V2</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B136" t="s">
         <v>489</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C136" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132" s="8" t="s">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
         <f>Vests!A10</f>
         <v>Tasmanian_Tiger_Plate_Carrier_MKIII</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B137" t="s">
         <v>490</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133" s="8" t="s">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
         <f>Vests!A11</f>
         <v>Umka_M33_SET1_hunter_vest</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B138" t="s">
         <v>491</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134" s="8" t="s">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
         <f>Vests!A12</f>
         <v>Velocity_Systems_MPPV_Multi_Purpose_Patrol_Vest</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B139" t="s">
         <v>492</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135" s="8" t="s">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
         <f>Ammunitions!A2</f>
         <v>7.62x39FMJ</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B140" t="s">
         <v>564</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C140" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136" s="8" t="s">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
         <f>Ammunitions!A3</f>
         <v>_12_70_8_5mm_Magnum_buckshot</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B141" t="s">
         <v>565</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137" s="8" t="s">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
         <f>Ammunitions!A4</f>
         <v>_12_70_Grizzly_40_slug</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B142" t="s">
         <v>566</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C142" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
         <f>Ammunitions!A5</f>
         <v>_20_70_7_5mm_buckshot</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B143" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
         <f>Ammunitions!A6</f>
         <v>_23_75mm_Shrapnel_10_buckshot</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B144" t="s">
         <v>568</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C144" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" s="8" t="s">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
         <f>Ammunitions!A7</f>
         <v>_9x18mm_PM_PSO_gzh</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B145" t="s">
         <v>569</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C145" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D145" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141" s="8" t="s">
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
         <f>Ammunitions!A8</f>
         <v>_7_62x25mm_TT_AKBS</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B146" t="s">
         <v>570</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142" s="8" t="s">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
         <f>Ammunitions!A9</f>
         <v>_9x19mm_Green_Tracer</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B147" t="s">
         <v>571</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C147" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143" s="8" t="s">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
         <f>Ammunitions!A10</f>
         <v>_45_ACP_Lasermatch_FMJ</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B148" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144" s="8" t="s">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
         <f>Ammunitions!A11</f>
         <v>_50_AE_Hawk_JSP</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B149" t="s">
         <v>573</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145" s="8" t="s">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
         <f>Ammunitions!A12</f>
         <v>_9x21mm_7U4</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B150" t="s">
         <v>574</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146" s="8" t="s">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
         <f>Ammunitions!A13</f>
         <v>_357_Magnum_JHP</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B151" t="s">
         <v>575</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
         <f>Ammunitions!A14</f>
         <v>_5_7x28mm_SS197SR</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
         <v>576</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C152" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148" s="8" t="s">
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
         <f>Ammunitions!A15</f>
         <v>_4_6x30mm_JSP_SX</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B153" t="s">
         <v>577</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D153" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149" s="8" t="s">
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
         <f>Ammunitions!A16</f>
         <v>_9x39mm_PAB_9_gs</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B154" t="s">
         <v>578</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C154" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150" s="8" t="s">
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f>Ammunitions!A17</f>
         <v>_366_TKM_EKO</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B155" t="s">
         <v>579</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C155" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151" s="8" t="s">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f>Ammunitions!A18</f>
         <v>_5_45x39mm_FMJ</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B156" t="s">
         <v>580</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C156" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D156" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-      <c r="F152" s="8" t="s">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f>Ammunitions!A19</f>
         <v>_5_56x45mm_M856</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B157" t="s">
         <v>581</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C157" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" s="8" t="s">
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f>Ammunitions!A20</f>
         <v>_7_62x39mm_T_45M1_gzh</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B158" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C158" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="F154" s="8" t="s">
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f>Ammunitions!A21</f>
         <v>_300_Blackout_V_Max</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B159" t="s">
         <v>583</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C159" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D159" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155" s="8" t="s">
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f>Ammunitions!A22</f>
         <v>_6_8x51mm_SIG_Hybrid</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B160" t="s">
         <v>584</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C160" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-      <c r="F156" s="8" t="s">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f>Ammunitions!A23</f>
         <v>_7_62x51mm_M80</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B161" t="s">
         <v>585</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C161" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D161" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157" s="8" t="s">
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f>Ammunitions!A24</f>
         <v>_7_62x54mm_R_SNB_gzh</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B162" t="s">
         <v>586</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C162" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158" s="8" t="s">
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f>Ammunitions!A25</f>
         <v>_12_7x55mm_PS12</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B163" t="s">
         <v>587</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C163" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-      <c r="F159" s="8" t="s">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8442,6 +8552,10 @@
     <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11581,7 +11695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
